--- a/Other/Saved Results.xlsx
+++ b/Other/Saved Results.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <workbookPr codeName="Questa_cartella_di_lavoro"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\albi2\Documents\GitHub\Variational-Autoencoder-for-EEG-analysis\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0AD28A3-0C6D-408D-A561-AC4914D55E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B4BC01-8809-4136-830B-5EBCF8E4584B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="644" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="644" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="D2A (Mixed Up)(32)" sheetId="4" r:id="rId1"/>
     <sheet name="D2A (Mixed Up)(64)" sheetId="5" r:id="rId2"/>
     <sheet name="D2A (Mixed Up)(128)" sheetId="3" r:id="rId3"/>
     <sheet name="D2A (Cross Subject)(64)" sheetId="2" r:id="rId4"/>
-    <sheet name="Foglio1" sheetId="6" r:id="rId5"/>
+    <sheet name="Stuff for paper" sheetId="6" r:id="rId5"/>
     <sheet name="D2A (Mixed Up)(64)(TEST)" sheetId="1" state="hidden" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="123">
   <si>
     <t>Accuract END</t>
   </si>
@@ -122,9 +122,6 @@
     <t>Tabella per paper</t>
   </si>
   <si>
-    <t>EEGNet Encoder</t>
-  </si>
-  <si>
     <t>Input channels</t>
   </si>
   <si>
@@ -153,9 +150,6 @@
   </si>
   <si>
     <t>(22,1)</t>
-  </si>
-  <si>
-    <t>Activation</t>
   </si>
   <si>
     <t>SELU</t>
@@ -224,9 +218,6 @@
     <t>Groups</t>
   </si>
   <si>
-    <t xml:space="preserve">Flatten </t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Used PyTorch </t>
     </r>
@@ -256,12 +247,198 @@
   <si>
     <t>Other notes</t>
   </si>
+  <si>
+    <t>Flatten*</t>
+  </si>
+  <si>
+    <t>Upsample</t>
+  </si>
+  <si>
+    <t>ConvTranspose2d</t>
+  </si>
+  <si>
+    <t>size = (1, 129)</t>
+  </si>
+  <si>
+    <t>Activation*</t>
+  </si>
+  <si>
+    <t>size = (1, 513)</t>
+  </si>
+  <si>
+    <t>EEGNet VAE</t>
+  </si>
+  <si>
+    <t>Encoder</t>
+  </si>
+  <si>
+    <t>Decoder</t>
+  </si>
+  <si>
+    <t>Loss</t>
+  </si>
+  <si>
+    <t>Kappa score</t>
+  </si>
+  <si>
+    <t>[43]</t>
+  </si>
+  <si>
+    <t>[7]</t>
+  </si>
+  <si>
+    <t>FBCSP [41]</t>
+  </si>
+  <si>
+    <t>BO [43]</t>
+  </si>
+  <si>
+    <t>Monolithic Network [46]</t>
+  </si>
+  <si>
+    <t>FBCSP-SVM [42]</t>
+  </si>
+  <si>
+    <t>CW-CNN [42]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SCSSP [44]</t>
+  </si>
+  <si>
+    <t>DFFN [7]</t>
+  </si>
+  <si>
+    <t>[X]</t>
+  </si>
+  <si>
+    <t>SS-MEMDBF [45]</t>
+  </si>
+  <si>
+    <t>Miao et al. [2]</t>
+  </si>
+  <si>
+    <t>[47]</t>
+  </si>
+  <si>
+    <t>[45]</t>
+  </si>
+  <si>
+    <t>[2]</t>
+  </si>
+  <si>
+    <t>[48]</t>
+  </si>
+  <si>
+    <t>Filter Bank Common Spatial Pattern (FBCSP) in Brain-Computer Interface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[X] </t>
+  </si>
+  <si>
+    <t>Recognition of EEG Signal Motor Imagery Intention Based on Deep Multi-View Feature Learning</t>
+  </si>
+  <si>
+    <t>User-customized brain computer interfaces using Bayesian optimization</t>
+  </si>
+  <si>
+    <t>Classification of multiple motor imagery using deep convolutional neural networks and spatial filter</t>
+  </si>
+  <si>
+    <t>Learning Temporal Information for Brain-Computer Interface Using Convolutional Neural Networks</t>
+  </si>
+  <si>
+    <t>Separable common spatio-spectral patterns for motor imagery BCI systems</t>
+  </si>
+  <si>
+    <t>Densely Feature Fusion Based on Convolutional Neural Networks for Motor Imagery EEG Classification</t>
+  </si>
+  <si>
+    <t>Application of artificial bee colony algorithm in feature optimization for motor imagery EEG classification</t>
+  </si>
+  <si>
+    <t>A multi-class EEG-based BCI classification using multivariate empirical mode decomposition based filtering and Riemannian geometry</t>
+  </si>
+  <si>
+    <t>Optimizing Single-Trial EEG Classification by Stationary Matrix Logistic Regression in Brain-Computer Interface</t>
+  </si>
+  <si>
+    <t>Motor imagery classification based on bilinear sub-manifold learning of symmetric positive-definite matrices</t>
+  </si>
+  <si>
+    <t>TSSM-SVM [48]</t>
+  </si>
+  <si>
+    <t>sMLR [47]</t>
+  </si>
+  <si>
+    <t>EEGNET + VAE</t>
+  </si>
+  <si>
+    <t>84.84±1.37</t>
+  </si>
+  <si>
+    <t>83.56±1.5</t>
+  </si>
+  <si>
+    <t>75.23±1.72</t>
+  </si>
+  <si>
+    <t>73.46±2.78</t>
+  </si>
+  <si>
+    <t>90.15±1.68</t>
+  </si>
+  <si>
+    <t>89.39±1.47</t>
+  </si>
+  <si>
+    <t>75.27±1.91</t>
+  </si>
+  <si>
+    <t>74.63±2.72</t>
+  </si>
+  <si>
+    <t>82.38±1.87</t>
+  </si>
+  <si>
+    <t>81.4±2.45</t>
+  </si>
+  <si>
+    <t>84.76±1.76</t>
+  </si>
+  <si>
+    <t>84.89±1.95</t>
+  </si>
+  <si>
+    <t>87.23±1.42</t>
+  </si>
+  <si>
+    <t>86.82±1.51</t>
+  </si>
+  <si>
+    <t>88.98±2.29</t>
+  </si>
+  <si>
+    <t>88.49±2.08</t>
+  </si>
+  <si>
+    <t>91.77±1.4</t>
+  </si>
+  <si>
+    <t>91.81±1.16</t>
+  </si>
+  <si>
+    <t>84.51±1.71</t>
+  </si>
+  <si>
+    <t>83.83±0.87</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,6 +460,20 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -317,7 +508,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -479,11 +670,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -642,11 +848,55 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -657,17 +907,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="220">
+  <dxfs count="240">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1065,6 +1315,206 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3144,9 +3594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1E5DA2D-C566-499E-B516-1DD1AE2AFBC0}">
+  <sheetPr codeName="Foglio1"/>
   <dimension ref="A2:AC60"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C57" sqref="B47:C57"/>
     </sheetView>
   </sheetViews>
@@ -3167,16 +3618,16 @@
       <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="58" t="s">
+      <c r="D4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
       <c r="L4" s="36"/>
       <c r="M4" s="36"/>
       <c r="N4" s="36"/>
@@ -3200,21 +3651,21 @@
       <c r="C5" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="59"/>
-      <c r="M5" s="59"/>
-      <c r="N5" s="59"/>
-      <c r="O5" s="59"/>
-      <c r="P5" s="59"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="74"/>
+      <c r="L5" s="74"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="74"/>
       <c r="Q5" s="35"/>
       <c r="R5" s="35"/>
       <c r="S5" s="35"/>
@@ -3625,16 +4076,16 @@
       <c r="B17" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="58" t="s">
+      <c r="D17" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="58"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="73"/>
+      <c r="H17" s="73"/>
+      <c r="I17" s="73"/>
+      <c r="J17" s="73"/>
+      <c r="K17" s="73"/>
       <c r="L17" s="36"/>
       <c r="M17" s="36"/>
       <c r="N17" s="36"/>
@@ -3659,15 +4110,15 @@
       <c r="C18" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="59" t="s">
+      <c r="D18" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="74"/>
+      <c r="I18" s="74"/>
+      <c r="J18" s="74"/>
       <c r="K18" s="35"/>
       <c r="L18" s="35"/>
       <c r="M18" s="35"/>
@@ -4192,16 +4643,16 @@
       <c r="B32" t="s">
         <v>0</v>
       </c>
-      <c r="D32" s="58" t="s">
+      <c r="D32" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="58"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="58"/>
-      <c r="H32" s="58"/>
-      <c r="I32" s="58"/>
-      <c r="J32" s="58"/>
-      <c r="K32" s="58"/>
+      <c r="E32" s="73"/>
+      <c r="F32" s="73"/>
+      <c r="G32" s="73"/>
+      <c r="H32" s="73"/>
+      <c r="I32" s="73"/>
+      <c r="J32" s="73"/>
+      <c r="K32" s="73"/>
       <c r="L32" s="36"/>
       <c r="M32" s="36"/>
       <c r="N32" s="36"/>
@@ -4225,21 +4676,21 @@
       <c r="C33" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D33" s="59" t="s">
+      <c r="D33" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="E33" s="59"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="59"/>
-      <c r="H33" s="59"/>
-      <c r="I33" s="59"/>
-      <c r="J33" s="59"/>
-      <c r="K33" s="59"/>
-      <c r="L33" s="59"/>
-      <c r="M33" s="59"/>
-      <c r="N33" s="59"/>
-      <c r="O33" s="59"/>
-      <c r="P33" s="59"/>
+      <c r="E33" s="74"/>
+      <c r="F33" s="74"/>
+      <c r="G33" s="74"/>
+      <c r="H33" s="74"/>
+      <c r="I33" s="74"/>
+      <c r="J33" s="74"/>
+      <c r="K33" s="74"/>
+      <c r="L33" s="74"/>
+      <c r="M33" s="74"/>
+      <c r="N33" s="74"/>
+      <c r="O33" s="74"/>
+      <c r="P33" s="74"/>
       <c r="Q33" s="36"/>
       <c r="R33" s="36"/>
       <c r="S33" s="36"/>
@@ -5376,16 +5827,16 @@
       <c r="B46" t="s">
         <v>1</v>
       </c>
-      <c r="D46" s="58" t="s">
+      <c r="D46" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="E46" s="58"/>
-      <c r="F46" s="58"/>
-      <c r="G46" s="58"/>
-      <c r="H46" s="58"/>
-      <c r="I46" s="58"/>
-      <c r="J46" s="58"/>
-      <c r="K46" s="58"/>
+      <c r="E46" s="73"/>
+      <c r="F46" s="73"/>
+      <c r="G46" s="73"/>
+      <c r="H46" s="73"/>
+      <c r="I46" s="73"/>
+      <c r="J46" s="73"/>
+      <c r="K46" s="73"/>
       <c r="L46" s="36"/>
       <c r="M46" s="36"/>
       <c r="N46" s="36"/>
@@ -5409,21 +5860,21 @@
       <c r="C47" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D47" s="59" t="s">
+      <c r="D47" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="E47" s="59"/>
-      <c r="F47" s="59"/>
-      <c r="G47" s="59"/>
-      <c r="H47" s="59"/>
-      <c r="I47" s="59"/>
-      <c r="J47" s="59"/>
-      <c r="K47" s="59"/>
-      <c r="L47" s="59"/>
-      <c r="M47" s="59"/>
-      <c r="N47" s="59"/>
-      <c r="O47" s="59"/>
-      <c r="P47" s="59"/>
+      <c r="E47" s="74"/>
+      <c r="F47" s="74"/>
+      <c r="G47" s="74"/>
+      <c r="H47" s="74"/>
+      <c r="I47" s="74"/>
+      <c r="J47" s="74"/>
+      <c r="K47" s="74"/>
+      <c r="L47" s="74"/>
+      <c r="M47" s="74"/>
+      <c r="N47" s="74"/>
+      <c r="O47" s="74"/>
+      <c r="P47" s="74"/>
       <c r="Q47" s="36"/>
       <c r="R47" s="36"/>
       <c r="S47" s="36"/>
@@ -6556,84 +7007,84 @@
     <mergeCell ref="D33:P33"/>
   </mergeCells>
   <conditionalFormatting sqref="D43:AA43">
-    <cfRule type="top10" dxfId="219" priority="39" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="218" priority="40" rank="1"/>
+    <cfRule type="top10" dxfId="239" priority="39" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="238" priority="40" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:AA35">
-    <cfRule type="top10" dxfId="217" priority="21" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="216" priority="22" rank="1"/>
+    <cfRule type="top10" dxfId="237" priority="21" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="236" priority="22" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34:AA34">
-    <cfRule type="top10" dxfId="215" priority="23" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="214" priority="24" rank="1"/>
+    <cfRule type="top10" dxfId="235" priority="23" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="234" priority="24" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37:AA37">
-    <cfRule type="top10" dxfId="213" priority="25" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="212" priority="26" rank="1"/>
+    <cfRule type="top10" dxfId="233" priority="25" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="232" priority="26" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36:AA36">
-    <cfRule type="top10" dxfId="211" priority="27" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="210" priority="28" rank="1"/>
+    <cfRule type="top10" dxfId="231" priority="27" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="230" priority="28" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39:AA39">
-    <cfRule type="top10" dxfId="209" priority="29" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="208" priority="30" rank="1"/>
+    <cfRule type="top10" dxfId="229" priority="29" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="228" priority="30" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38:AA38">
-    <cfRule type="top10" dxfId="207" priority="31" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="206" priority="32" rank="1"/>
+    <cfRule type="top10" dxfId="227" priority="31" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="226" priority="32" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41:AA41">
-    <cfRule type="top10" dxfId="205" priority="33" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="204" priority="34" rank="1"/>
+    <cfRule type="top10" dxfId="225" priority="33" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="224" priority="34" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40:AA40">
-    <cfRule type="top10" dxfId="203" priority="35" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="202" priority="36" rank="1"/>
+    <cfRule type="top10" dxfId="223" priority="35" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="222" priority="36" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42:AA42">
-    <cfRule type="top10" dxfId="201" priority="37" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="200" priority="38" rank="1"/>
+    <cfRule type="top10" dxfId="221" priority="37" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="220" priority="38" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49:AA49">
-    <cfRule type="top10" dxfId="199" priority="1" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="198" priority="2" rank="1"/>
+    <cfRule type="top10" dxfId="219" priority="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="218" priority="2" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48:AA48">
-    <cfRule type="top10" dxfId="197" priority="3" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="196" priority="4" rank="1"/>
+    <cfRule type="top10" dxfId="217" priority="3" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="216" priority="4" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51:AA51">
-    <cfRule type="top10" dxfId="195" priority="5" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="194" priority="6" rank="1"/>
+    <cfRule type="top10" dxfId="215" priority="5" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="214" priority="6" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50:AA50">
-    <cfRule type="top10" dxfId="193" priority="7" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="192" priority="8" rank="1"/>
+    <cfRule type="top10" dxfId="213" priority="7" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="212" priority="8" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53:AA53">
-    <cfRule type="top10" dxfId="191" priority="9" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="190" priority="10" rank="1"/>
+    <cfRule type="top10" dxfId="211" priority="9" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="210" priority="10" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52:AA52">
-    <cfRule type="top10" dxfId="189" priority="11" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="188" priority="12" rank="1"/>
+    <cfRule type="top10" dxfId="209" priority="11" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="208" priority="12" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55:AA55">
-    <cfRule type="top10" dxfId="187" priority="13" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="186" priority="14" rank="1"/>
+    <cfRule type="top10" dxfId="207" priority="13" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="206" priority="14" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D54:AA54">
-    <cfRule type="top10" dxfId="185" priority="15" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="184" priority="16" rank="1"/>
+    <cfRule type="top10" dxfId="205" priority="15" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="204" priority="16" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D56:AA56">
-    <cfRule type="top10" dxfId="183" priority="17" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="182" priority="18" rank="1"/>
+    <cfRule type="top10" dxfId="203" priority="17" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="202" priority="18" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57:AA57">
-    <cfRule type="top10" dxfId="181" priority="19" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="180" priority="20" rank="1"/>
+    <cfRule type="top10" dxfId="201" priority="19" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="200" priority="20" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6641,16 +7092,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7574636F-103D-45E0-9051-CAFBEA15D9A4}">
+  <sheetPr codeName="Foglio2"/>
   <dimension ref="A2:AD104"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B86" sqref="B77:B86"/>
+    <sheetView topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E104" sqref="A92:E104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.77734375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.5546875" style="39" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.44140625" style="39" bestFit="1" customWidth="1"/>
@@ -6698,21 +7151,21 @@
       <c r="C5" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="59"/>
-      <c r="M5" s="59"/>
-      <c r="N5" s="59"/>
-      <c r="O5" s="59"/>
-      <c r="P5" s="59"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="74"/>
+      <c r="L5" s="74"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="74"/>
       <c r="Q5" s="35"/>
       <c r="R5" s="35"/>
       <c r="S5" s="35"/>
@@ -7669,15 +8122,15 @@
       <c r="C18" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="59" t="s">
+      <c r="D18" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="74"/>
+      <c r="I18" s="74"/>
+      <c r="J18" s="74"/>
       <c r="K18" s="35"/>
       <c r="L18" s="35"/>
       <c r="M18" s="35"/>
@@ -8614,21 +9067,21 @@
       <c r="C31" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D31" s="59" t="s">
+      <c r="D31" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="E31" s="59"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="59"/>
-      <c r="J31" s="59"/>
-      <c r="K31" s="59"/>
-      <c r="L31" s="59"/>
-      <c r="M31" s="59"/>
-      <c r="N31" s="59"/>
-      <c r="O31" s="59"/>
-      <c r="P31" s="59"/>
+      <c r="E31" s="74"/>
+      <c r="F31" s="74"/>
+      <c r="G31" s="74"/>
+      <c r="H31" s="74"/>
+      <c r="I31" s="74"/>
+      <c r="J31" s="74"/>
+      <c r="K31" s="74"/>
+      <c r="L31" s="74"/>
+      <c r="M31" s="74"/>
+      <c r="N31" s="74"/>
+      <c r="O31" s="74"/>
+      <c r="P31" s="74"/>
       <c r="Q31" s="35"/>
       <c r="R31" s="35"/>
       <c r="S31" s="35"/>
@@ -9314,15 +9767,15 @@
       <c r="C44" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D44" s="59" t="s">
+      <c r="D44" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="E44" s="59"/>
-      <c r="F44" s="59"/>
-      <c r="G44" s="59"/>
-      <c r="H44" s="59"/>
-      <c r="I44" s="59"/>
-      <c r="J44" s="59"/>
+      <c r="E44" s="74"/>
+      <c r="F44" s="74"/>
+      <c r="G44" s="74"/>
+      <c r="H44" s="74"/>
+      <c r="I44" s="74"/>
+      <c r="J44" s="74"/>
       <c r="K44" s="35"/>
       <c r="L44" s="35"/>
       <c r="M44" s="35"/>
@@ -10011,16 +10464,16 @@
       <c r="B61" t="s">
         <v>0</v>
       </c>
-      <c r="D61" s="58" t="s">
+      <c r="D61" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="E61" s="58"/>
-      <c r="F61" s="58"/>
-      <c r="G61" s="58"/>
-      <c r="H61" s="58"/>
-      <c r="I61" s="58"/>
-      <c r="J61" s="58"/>
-      <c r="K61" s="58"/>
+      <c r="E61" s="73"/>
+      <c r="F61" s="73"/>
+      <c r="G61" s="73"/>
+      <c r="H61" s="73"/>
+      <c r="I61" s="73"/>
+      <c r="J61" s="73"/>
+      <c r="K61" s="73"/>
       <c r="L61" s="36"/>
       <c r="M61" s="36"/>
       <c r="N61" s="36"/>
@@ -10045,21 +10498,21 @@
       <c r="C62" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D62" s="59" t="s">
+      <c r="D62" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="E62" s="59"/>
-      <c r="F62" s="59"/>
-      <c r="G62" s="59"/>
-      <c r="H62" s="59"/>
-      <c r="I62" s="59"/>
-      <c r="J62" s="59"/>
-      <c r="K62" s="59"/>
-      <c r="L62" s="59"/>
-      <c r="M62" s="59"/>
-      <c r="N62" s="59"/>
-      <c r="O62" s="59"/>
-      <c r="P62" s="59"/>
+      <c r="E62" s="74"/>
+      <c r="F62" s="74"/>
+      <c r="G62" s="74"/>
+      <c r="H62" s="74"/>
+      <c r="I62" s="74"/>
+      <c r="J62" s="74"/>
+      <c r="K62" s="74"/>
+      <c r="L62" s="74"/>
+      <c r="M62" s="74"/>
+      <c r="N62" s="74"/>
+      <c r="O62" s="74"/>
+      <c r="P62" s="74"/>
       <c r="Q62" s="36"/>
       <c r="R62" s="36"/>
       <c r="S62" s="36"/>
@@ -11309,16 +11762,16 @@
       <c r="B75" t="s">
         <v>1</v>
       </c>
-      <c r="D75" s="58" t="s">
+      <c r="D75" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="E75" s="58"/>
-      <c r="F75" s="58"/>
-      <c r="G75" s="58"/>
-      <c r="H75" s="58"/>
-      <c r="I75" s="58"/>
-      <c r="J75" s="58"/>
-      <c r="K75" s="58"/>
+      <c r="E75" s="73"/>
+      <c r="F75" s="73"/>
+      <c r="G75" s="73"/>
+      <c r="H75" s="73"/>
+      <c r="I75" s="73"/>
+      <c r="J75" s="73"/>
+      <c r="K75" s="73"/>
       <c r="L75" s="36"/>
       <c r="M75" s="36"/>
       <c r="N75" s="36"/>
@@ -11335,21 +11788,21 @@
       <c r="C76" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D76" s="59" t="s">
+      <c r="D76" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="E76" s="59"/>
-      <c r="F76" s="59"/>
-      <c r="G76" s="59"/>
-      <c r="H76" s="59"/>
-      <c r="I76" s="59"/>
-      <c r="J76" s="59"/>
-      <c r="K76" s="59"/>
-      <c r="L76" s="59"/>
-      <c r="M76" s="59"/>
-      <c r="N76" s="59"/>
-      <c r="O76" s="59"/>
-      <c r="P76" s="59"/>
+      <c r="E76" s="74"/>
+      <c r="F76" s="74"/>
+      <c r="G76" s="74"/>
+      <c r="H76" s="74"/>
+      <c r="I76" s="74"/>
+      <c r="J76" s="74"/>
+      <c r="K76" s="74"/>
+      <c r="L76" s="74"/>
+      <c r="M76" s="74"/>
+      <c r="N76" s="74"/>
+      <c r="O76" s="74"/>
+      <c r="P76" s="74"/>
       <c r="Q76" s="36"/>
       <c r="R76" s="36"/>
       <c r="S76" s="36"/>
@@ -12596,7 +13049,22 @@
       <c r="L92" s="53"/>
     </row>
     <row r="93" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="K93" s="53"/>
+      <c r="B93" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="C93" s="74"/>
+      <c r="D93" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="E93" s="74"/>
+      <c r="H93" s="74" t="s">
+        <v>70</v>
+      </c>
+      <c r="I93" s="74"/>
+      <c r="J93" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="K93" s="74"/>
       <c r="L93" s="53"/>
     </row>
     <row r="94" spans="1:30" x14ac:dyDescent="0.3">
@@ -12607,42 +13075,75 @@
       <c r="C94" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="E94" t="s">
+      <c r="D94" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="E94" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="F94" s="59"/>
+      <c r="H94" t="s">
         <v>23</v>
       </c>
-      <c r="F94" t="s">
+      <c r="I94" t="s">
         <v>24</v>
       </c>
+      <c r="J94" t="s">
+        <v>23</v>
+      </c>
+      <c r="K94" t="s">
+        <v>24</v>
+      </c>
+      <c r="M94" s="39"/>
     </row>
     <row r="95" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>1</v>
       </c>
-      <c r="B95" s="53" t="str">
-        <f t="shared" ref="B95:B104" si="68">CONCATENATE(ROUND(B77, 2),$H$95,ROUND(E95,2))</f>
+      <c r="B95" s="61" t="str">
+        <f t="shared" ref="B95:B104" si="68">CONCATENATE(ROUND(B77, 2),$L$95,ROUND(H95,2))</f>
         <v>84.84±1.37</v>
       </c>
       <c r="C95" s="53" t="str">
-        <f t="shared" ref="C95:C104" si="69">CONCATENATE(ROUND(B45, 4),$H$95,ROUND(F95,3))</f>
+        <f t="shared" ref="C95:C104" si="69">CONCATENATE(ROUND(B45, 4),$L$95,ROUND(I95,3))</f>
         <v>0.8013±0.017</v>
       </c>
-      <c r="E95">
+      <c r="D95" s="59" t="str">
+        <f>CONCATENATE(ROUND(B63, 2),$L$95,ROUND(J95,2))</f>
+        <v>83.56±1.5</v>
+      </c>
+      <c r="E95" s="59" t="str">
+        <f>CONCATENATE(ROUND(B32, 4),$L$95,ROUND(K95,3))</f>
+        <v>0.7816±0.019</v>
+      </c>
+      <c r="F95" s="59"/>
+      <c r="H95">
         <f>_xlfn.STDEV.S(D77:AD77)</f>
         <v>1.3653184801229497</v>
       </c>
-      <c r="F95">
+      <c r="I95">
         <f>_xlfn.STDEV.S(D45:O45)</f>
         <v>1.6687526075339985E-2</v>
       </c>
-      <c r="H95" t="s">
+      <c r="J95">
+        <f>_xlfn.STDEV.S(D63:AD63)</f>
+        <v>1.5012055937007454</v>
+      </c>
+      <c r="K95">
+        <f>_xlfn.STDEV.S(D32:O32)</f>
+        <v>1.8917651432450517E-2</v>
+      </c>
+      <c r="L95" t="s">
         <v>25</v>
       </c>
+      <c r="O95" s="39"/>
+      <c r="P95" s="39"/>
     </row>
     <row r="96" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A96" s="6">
         <v>2</v>
       </c>
-      <c r="B96" s="53" t="str">
+      <c r="B96" s="61" t="str">
         <f t="shared" si="68"/>
         <v>75.23±1.72</v>
       </c>
@@ -12650,20 +13151,40 @@
         <f t="shared" si="69"/>
         <v>0.6755±0.026</v>
       </c>
-      <c r="E96">
-        <f t="shared" ref="E96:E103" si="70">_xlfn.STDEV.S(D78:AD78)</f>
+      <c r="D96" s="59" t="str">
+        <f t="shared" ref="D96:D103" si="70">CONCATENATE(ROUND(B64, 2),$L$95,ROUND(J96,2))</f>
+        <v>73.46±2.78</v>
+      </c>
+      <c r="E96" s="59" t="str">
+        <f t="shared" ref="E96:E103" si="71">CONCATENATE(ROUND(B33, 4),$L$95,ROUND(K96,3))</f>
+        <v>0.6358±0.042</v>
+      </c>
+      <c r="F96" s="59"/>
+      <c r="H96">
+        <f t="shared" ref="H96:H103" si="72">_xlfn.STDEV.S(D78:AD78)</f>
         <v>1.7173088690060823</v>
       </c>
-      <c r="F96">
-        <f t="shared" ref="F96:F103" si="71">_xlfn.STDEV.S(D46:O46)</f>
+      <c r="I96">
+        <f t="shared" ref="I96:I103" si="73">_xlfn.STDEV.S(D46:O46)</f>
         <v>2.6223069211646213E-2</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J96">
+        <f t="shared" ref="J96:J104" si="74">_xlfn.STDEV.S(D64:AD64)</f>
+        <v>2.7800024390528155</v>
+      </c>
+      <c r="K96">
+        <f t="shared" ref="K96:K104" si="75">_xlfn.STDEV.S(D33:O33)</f>
+        <v>4.1658863966747825E-2</v>
+      </c>
+      <c r="L96"/>
+      <c r="O96" s="39"/>
+      <c r="P96" s="39"/>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A97" s="6">
         <v>3</v>
       </c>
-      <c r="B97" s="53" t="str">
+      <c r="B97" s="61" t="str">
         <f t="shared" si="68"/>
         <v>90.15±1.68</v>
       </c>
@@ -12671,20 +13192,40 @@
         <f t="shared" si="69"/>
         <v>0.8735±0.026</v>
       </c>
-      <c r="E97">
+      <c r="D97" s="59" t="str">
         <f t="shared" si="70"/>
+        <v>89.39±1.47</v>
+      </c>
+      <c r="E97" s="59" t="str">
+        <f t="shared" si="71"/>
+        <v>0.8576±0.014</v>
+      </c>
+      <c r="F97" s="59"/>
+      <c r="H97">
+        <f t="shared" si="72"/>
         <v>1.6767281802533878</v>
       </c>
-      <c r="F97">
-        <f t="shared" si="71"/>
+      <c r="I97">
+        <f t="shared" si="73"/>
         <v>2.5536180215974483E-2</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J97">
+        <f t="shared" si="74"/>
+        <v>1.4741791074252921</v>
+      </c>
+      <c r="K97">
+        <f t="shared" si="75"/>
+        <v>1.425241593448973E-2</v>
+      </c>
+      <c r="L97"/>
+      <c r="O97" s="39"/>
+      <c r="P97" s="39"/>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A98" s="6">
         <v>4</v>
       </c>
-      <c r="B98" s="53" t="str">
+      <c r="B98" s="61" t="str">
         <f t="shared" si="68"/>
         <v>75.27±1.91</v>
       </c>
@@ -12692,20 +13233,40 @@
         <f t="shared" si="69"/>
         <v>0.6644±0.024</v>
       </c>
-      <c r="E98">
+      <c r="D98" s="59" t="str">
         <f t="shared" si="70"/>
+        <v>74.63±2.72</v>
+      </c>
+      <c r="E98" s="59" t="str">
+        <f t="shared" si="71"/>
+        <v>0.6499±0.033</v>
+      </c>
+      <c r="F98" s="59"/>
+      <c r="H98">
+        <f t="shared" si="72"/>
         <v>1.907483212346732</v>
       </c>
-      <c r="F98">
-        <f t="shared" si="71"/>
+      <c r="I98">
+        <f t="shared" si="73"/>
         <v>2.4116802927092999E-2</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J98">
+        <f t="shared" si="74"/>
+        <v>2.7171692559377143</v>
+      </c>
+      <c r="K98">
+        <f t="shared" si="75"/>
+        <v>3.2901573314481222E-2</v>
+      </c>
+      <c r="L98"/>
+      <c r="O98" s="39"/>
+      <c r="P98" s="39"/>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A99" s="6">
         <v>5</v>
       </c>
-      <c r="B99" s="53" t="str">
+      <c r="B99" s="61" t="str">
         <f t="shared" si="68"/>
         <v>82.38±1.87</v>
       </c>
@@ -12713,16 +13274,36 @@
         <f t="shared" si="69"/>
         <v>0.7596±0.026</v>
       </c>
-      <c r="E99">
+      <c r="D99" s="59" t="str">
         <f t="shared" si="70"/>
+        <v>81.4±2.45</v>
+      </c>
+      <c r="E99" s="59" t="str">
+        <f t="shared" si="71"/>
+        <v>0.7407±0.034</v>
+      </c>
+      <c r="F99" s="59"/>
+      <c r="H99">
+        <f t="shared" si="72"/>
         <v>1.8737946017339187</v>
       </c>
-      <c r="F99">
-        <f t="shared" si="71"/>
+      <c r="I99">
+        <f t="shared" si="73"/>
         <v>2.5545658850053807E-2</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J99">
+        <f t="shared" si="74"/>
+        <v>2.4520913642215767</v>
+      </c>
+      <c r="K99">
+        <f t="shared" si="75"/>
+        <v>3.4078086337472682E-2</v>
+      </c>
+      <c r="L99"/>
+      <c r="O99" s="39"/>
+      <c r="P99" s="39"/>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A100" s="6">
         <v>6</v>
       </c>
@@ -12734,20 +13315,40 @@
         <f t="shared" si="69"/>
         <v>0.7959±0.026</v>
       </c>
-      <c r="E100">
+      <c r="D100" s="61" t="str">
         <f t="shared" si="70"/>
+        <v>84.89±1.95</v>
+      </c>
+      <c r="E100" s="59" t="str">
+        <f t="shared" si="71"/>
+        <v>0.7936±0.033</v>
+      </c>
+      <c r="F100" s="59"/>
+      <c r="H100">
+        <f t="shared" si="72"/>
         <v>1.7555860966292893</v>
       </c>
-      <c r="F100">
-        <f t="shared" si="71"/>
+      <c r="I100">
+        <f t="shared" si="73"/>
         <v>2.6074324467846636E-2</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J100">
+        <f t="shared" si="74"/>
+        <v>1.9532238153058821</v>
+      </c>
+      <c r="K100">
+        <f t="shared" si="75"/>
+        <v>3.3177410332730375E-2</v>
+      </c>
+      <c r="L100"/>
+      <c r="O100" s="39"/>
+      <c r="P100" s="39"/>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A101" s="6">
         <v>7</v>
       </c>
-      <c r="B101" s="53" t="str">
+      <c r="B101" s="61" t="str">
         <f t="shared" si="68"/>
         <v>87.23±1.42</v>
       </c>
@@ -12755,20 +13356,40 @@
         <f t="shared" si="69"/>
         <v>0.8345±0.017</v>
       </c>
-      <c r="E101">
+      <c r="D101" s="59" t="str">
         <f t="shared" si="70"/>
+        <v>86.82±1.51</v>
+      </c>
+      <c r="E101" s="59" t="str">
+        <f t="shared" si="71"/>
+        <v>0.8322±0.013</v>
+      </c>
+      <c r="F101" s="59"/>
+      <c r="H101">
+        <f t="shared" si="72"/>
         <v>1.4229646058248253</v>
       </c>
-      <c r="F101">
-        <f t="shared" si="71"/>
+      <c r="I101">
+        <f t="shared" si="73"/>
         <v>1.6531006535011904E-2</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J101">
+        <f t="shared" si="74"/>
+        <v>1.5119196437837759</v>
+      </c>
+      <c r="K101">
+        <f t="shared" si="75"/>
+        <v>1.2659603347225825E-2</v>
+      </c>
+      <c r="L101"/>
+      <c r="O101" s="39"/>
+      <c r="P101" s="39"/>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A102" s="6">
         <v>8</v>
       </c>
-      <c r="B102" s="53" t="str">
+      <c r="B102" s="61" t="str">
         <f t="shared" si="68"/>
         <v>88.98±2.29</v>
       </c>
@@ -12776,16 +13397,36 @@
         <f t="shared" si="69"/>
         <v>0.8507±0.04</v>
       </c>
-      <c r="E102">
+      <c r="D102" s="59" t="str">
         <f t="shared" si="70"/>
+        <v>88.49±2.08</v>
+      </c>
+      <c r="E102" s="59" t="str">
+        <f t="shared" si="71"/>
+        <v>0.838±0.034</v>
+      </c>
+      <c r="F102" s="59"/>
+      <c r="H102">
+        <f t="shared" si="72"/>
         <v>2.2882590016936248</v>
       </c>
-      <c r="F102">
-        <f t="shared" si="71"/>
+      <c r="I102">
+        <f t="shared" si="73"/>
         <v>3.9635619966021829E-2</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J102">
+        <f t="shared" si="74"/>
+        <v>2.0759950957020399</v>
+      </c>
+      <c r="K102">
+        <f t="shared" si="75"/>
+        <v>3.4305922812249208E-2</v>
+      </c>
+      <c r="L102"/>
+      <c r="O102" s="39"/>
+      <c r="P102" s="39"/>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A103" s="10">
         <v>9</v>
       </c>
@@ -12797,20 +13438,40 @@
         <f t="shared" si="69"/>
         <v>0.89±0.019</v>
       </c>
-      <c r="E103">
+      <c r="D103" s="61" t="str">
         <f t="shared" si="70"/>
+        <v>91.81±1.16</v>
+      </c>
+      <c r="E103" s="59" t="str">
+        <f t="shared" si="71"/>
+        <v>0.887±0.015</v>
+      </c>
+      <c r="F103" s="59"/>
+      <c r="H103">
+        <f t="shared" si="72"/>
         <v>1.4048677387433399</v>
       </c>
-      <c r="F103">
-        <f t="shared" si="71"/>
+      <c r="I103">
+        <f t="shared" si="73"/>
         <v>1.8740702065533483E-2</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J103">
+        <f t="shared" si="74"/>
+        <v>1.1646549630403298</v>
+      </c>
+      <c r="K103">
+        <f t="shared" si="75"/>
+        <v>1.5349367862810459E-2</v>
+      </c>
+      <c r="L103"/>
+      <c r="O103" s="39"/>
+      <c r="P103" s="39"/>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A104" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="B104" s="53" t="str">
+      <c r="B104" s="61" t="str">
         <f t="shared" si="68"/>
         <v>84.51±1.71</v>
       </c>
@@ -12818,185 +13479,209 @@
         <f t="shared" si="69"/>
         <v>0.7939±0.024</v>
       </c>
-      <c r="E104">
-        <f>AVERAGE(E95:E103)</f>
+      <c r="D104" s="59" t="str">
+        <f>CONCATENATE(ROUND(B72, 2),$L$95,ROUND(J104,2))</f>
+        <v>83.83±0.87</v>
+      </c>
+      <c r="E104" s="59" t="str">
+        <f>CONCATENATE(ROUND(B41, 4),$L$95,ROUND(K104,3))</f>
+        <v>0.7796±0.014</v>
+      </c>
+      <c r="F104" s="59"/>
+      <c r="H104">
+        <f>AVERAGE(H95:H103)</f>
         <v>1.7124789762615722</v>
       </c>
-      <c r="F104">
-        <f>AVERAGE(F95:F103)</f>
+      <c r="I104">
+        <f>AVERAGE(I95:I103)</f>
         <v>2.4343432257169038E-2</v>
       </c>
+      <c r="J104">
+        <f t="shared" si="74"/>
+        <v>0.87200533185388696</v>
+      </c>
+      <c r="K104">
+        <f t="shared" si="75"/>
+        <v>1.376870069867064E-2</v>
+      </c>
+      <c r="L104"/>
+      <c r="O104" s="39"/>
+      <c r="P104" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="D75:K75"/>
-    <mergeCell ref="D76:P76"/>
+  <mergeCells count="12">
     <mergeCell ref="D5:P5"/>
     <mergeCell ref="D18:J18"/>
     <mergeCell ref="D61:K61"/>
     <mergeCell ref="D62:P62"/>
     <mergeCell ref="D31:P31"/>
     <mergeCell ref="D44:J44"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="J93:K93"/>
+    <mergeCell ref="D75:K75"/>
+    <mergeCell ref="D76:P76"/>
   </mergeCells>
   <conditionalFormatting sqref="T43:AA43">
-    <cfRule type="top10" dxfId="179" priority="119" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="178" priority="120" rank="1"/>
+    <cfRule type="top10" dxfId="199" priority="119" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="198" priority="120" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T35:AA35">
-    <cfRule type="top10" dxfId="177" priority="101" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="176" priority="102" rank="1"/>
+    <cfRule type="top10" dxfId="197" priority="101" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="196" priority="102" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T34:AA34">
-    <cfRule type="top10" dxfId="175" priority="103" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="174" priority="104" rank="1"/>
+    <cfRule type="top10" dxfId="195" priority="103" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="194" priority="104" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T37:AA37">
-    <cfRule type="top10" dxfId="173" priority="105" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="172" priority="106" rank="1"/>
+    <cfRule type="top10" dxfId="193" priority="105" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="192" priority="106" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T36:AA36">
-    <cfRule type="top10" dxfId="171" priority="107" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="170" priority="108" rank="1"/>
+    <cfRule type="top10" dxfId="191" priority="107" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="190" priority="108" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T39:AA39">
-    <cfRule type="top10" dxfId="169" priority="109" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="168" priority="110" rank="1"/>
+    <cfRule type="top10" dxfId="189" priority="109" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="188" priority="110" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T38:AA38">
-    <cfRule type="top10" dxfId="167" priority="111" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="166" priority="112" rank="1"/>
+    <cfRule type="top10" dxfId="187" priority="111" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="186" priority="112" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T41:AA41">
-    <cfRule type="top10" dxfId="165" priority="113" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="164" priority="114" rank="1"/>
+    <cfRule type="top10" dxfId="185" priority="113" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="184" priority="114" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T40:AA40">
-    <cfRule type="top10" dxfId="163" priority="115" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="162" priority="116" rank="1"/>
+    <cfRule type="top10" dxfId="183" priority="115" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="182" priority="116" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T42:AA42">
-    <cfRule type="top10" dxfId="161" priority="117" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="160" priority="118" rank="1"/>
+    <cfRule type="top10" dxfId="181" priority="117" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="180" priority="118" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T49:AA49">
-    <cfRule type="top10" dxfId="159" priority="81" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="158" priority="82" rank="1"/>
+    <cfRule type="top10" dxfId="179" priority="81" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="178" priority="82" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T48:AA48">
-    <cfRule type="top10" dxfId="157" priority="83" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="156" priority="84" rank="1"/>
+    <cfRule type="top10" dxfId="177" priority="83" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="176" priority="84" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T51:AA51">
-    <cfRule type="top10" dxfId="155" priority="85" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="154" priority="86" rank="1"/>
+    <cfRule type="top10" dxfId="175" priority="85" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="174" priority="86" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T50:AA50">
-    <cfRule type="top10" dxfId="153" priority="87" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="152" priority="88" rank="1"/>
+    <cfRule type="top10" dxfId="173" priority="87" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="172" priority="88" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T53:AA53">
-    <cfRule type="top10" dxfId="151" priority="89" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="150" priority="90" rank="1"/>
+    <cfRule type="top10" dxfId="171" priority="89" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="170" priority="90" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T52:AA52">
-    <cfRule type="top10" dxfId="149" priority="91" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="148" priority="92" rank="1"/>
+    <cfRule type="top10" dxfId="169" priority="91" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="168" priority="92" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T55:AA57">
-    <cfRule type="top10" dxfId="147" priority="93" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="146" priority="94" rank="1"/>
+    <cfRule type="top10" dxfId="167" priority="93" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="166" priority="94" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T54:AA54">
-    <cfRule type="top10" dxfId="145" priority="95" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="144" priority="96" rank="1"/>
+    <cfRule type="top10" dxfId="165" priority="95" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="164" priority="96" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T58:AA60">
-    <cfRule type="top10" dxfId="143" priority="97" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="142" priority="98" rank="1"/>
+    <cfRule type="top10" dxfId="163" priority="97" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="162" priority="98" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T61:AA61">
-    <cfRule type="top10" dxfId="141" priority="99" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="140" priority="100" rank="1"/>
+    <cfRule type="top10" dxfId="161" priority="99" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="160" priority="100" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64:AD64">
-    <cfRule type="top10" dxfId="139" priority="21" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="138" priority="22" rank="1"/>
+    <cfRule type="top10" dxfId="159" priority="21" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="158" priority="22" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63:AD63">
-    <cfRule type="top10" dxfId="137" priority="23" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="136" priority="24" rank="1"/>
+    <cfRule type="top10" dxfId="157" priority="23" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="156" priority="24" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D66:AD66">
-    <cfRule type="top10" dxfId="135" priority="25" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="134" priority="26" rank="1"/>
+    <cfRule type="top10" dxfId="155" priority="25" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="154" priority="26" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D65:AD65">
-    <cfRule type="top10" dxfId="133" priority="27" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="132" priority="28" rank="1"/>
+    <cfRule type="top10" dxfId="153" priority="27" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="152" priority="28" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D68:AD68">
-    <cfRule type="top10" dxfId="131" priority="29" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="130" priority="30" rank="1"/>
+    <cfRule type="top10" dxfId="151" priority="29" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="150" priority="30" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67:AD67">
-    <cfRule type="top10" dxfId="129" priority="31" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="128" priority="32" rank="1"/>
+    <cfRule type="top10" dxfId="149" priority="31" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="148" priority="32" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70:AD70">
-    <cfRule type="top10" dxfId="127" priority="33" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="126" priority="34" rank="1"/>
+    <cfRule type="top10" dxfId="147" priority="33" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="146" priority="34" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69:AD69">
-    <cfRule type="top10" dxfId="125" priority="35" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="124" priority="36" rank="1"/>
+    <cfRule type="top10" dxfId="145" priority="35" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="144" priority="36" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71:AD71">
-    <cfRule type="top10" dxfId="123" priority="37" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="122" priority="38" rank="1"/>
+    <cfRule type="top10" dxfId="143" priority="37" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="142" priority="38" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D72:AD72">
-    <cfRule type="top10" dxfId="121" priority="39" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="120" priority="40" rank="1"/>
+    <cfRule type="top10" dxfId="141" priority="39" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="140" priority="40" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D78:AD78">
-    <cfRule type="top10" dxfId="119" priority="1" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="118" priority="2" rank="1"/>
+    <cfRule type="top10" dxfId="139" priority="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="138" priority="2" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D77:AD77">
-    <cfRule type="top10" dxfId="117" priority="3" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="116" priority="4" rank="1"/>
+    <cfRule type="top10" dxfId="137" priority="3" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="136" priority="4" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D80:AD80">
-    <cfRule type="top10" dxfId="115" priority="5" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="114" priority="6" rank="1"/>
+    <cfRule type="top10" dxfId="135" priority="5" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="134" priority="6" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D79:AD79">
-    <cfRule type="top10" dxfId="113" priority="7" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="112" priority="8" rank="1"/>
+    <cfRule type="top10" dxfId="133" priority="7" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="132" priority="8" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D82:AD82">
-    <cfRule type="top10" dxfId="111" priority="9" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="110" priority="10" rank="1"/>
+    <cfRule type="top10" dxfId="131" priority="9" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="130" priority="10" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D81:AD81">
-    <cfRule type="top10" dxfId="109" priority="11" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="108" priority="12" rank="1"/>
+    <cfRule type="top10" dxfId="129" priority="11" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="128" priority="12" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D84:AD84">
-    <cfRule type="top10" dxfId="107" priority="13" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="106" priority="14" rank="1"/>
+    <cfRule type="top10" dxfId="127" priority="13" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="126" priority="14" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83:AD83">
-    <cfRule type="top10" dxfId="105" priority="15" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="104" priority="16" rank="1"/>
+    <cfRule type="top10" dxfId="125" priority="15" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="124" priority="16" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D85:AD85">
-    <cfRule type="top10" dxfId="103" priority="17" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="102" priority="18" rank="1"/>
+    <cfRule type="top10" dxfId="123" priority="17" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="122" priority="18" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D86:AD86">
-    <cfRule type="top10" dxfId="101" priority="19" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="100" priority="20" rank="1"/>
+    <cfRule type="top10" dxfId="121" priority="19" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="120" priority="20" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -13005,6 +13690,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9569107-D6A2-48F5-A7AB-646FE6B45B23}">
+  <sheetPr codeName="Foglio3"/>
   <dimension ref="A2:AC60"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -13028,16 +13714,16 @@
       <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="58" t="s">
+      <c r="D4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
       <c r="L4" s="36"/>
       <c r="M4" s="36"/>
       <c r="N4" s="36"/>
@@ -13061,21 +13747,21 @@
       <c r="C5" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="59"/>
-      <c r="M5" s="59"/>
-      <c r="N5" s="59"/>
-      <c r="O5" s="59"/>
-      <c r="P5" s="59"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="74"/>
+      <c r="L5" s="74"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="74"/>
       <c r="Q5" s="35"/>
       <c r="R5" s="35"/>
       <c r="S5" s="35"/>
@@ -13414,16 +14100,16 @@
       <c r="B17" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="58" t="s">
+      <c r="D17" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="58"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="73"/>
+      <c r="H17" s="73"/>
+      <c r="I17" s="73"/>
+      <c r="J17" s="73"/>
+      <c r="K17" s="73"/>
       <c r="L17" s="36"/>
       <c r="M17" s="36"/>
       <c r="N17" s="36"/>
@@ -13448,15 +14134,15 @@
       <c r="C18" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="59" t="s">
+      <c r="D18" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="74"/>
+      <c r="I18" s="74"/>
+      <c r="J18" s="74"/>
       <c r="K18" s="35"/>
       <c r="L18" s="35"/>
       <c r="M18" s="35"/>
@@ -13927,16 +14613,16 @@
       <c r="B32" t="s">
         <v>0</v>
       </c>
-      <c r="D32" s="58" t="s">
+      <c r="D32" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="58"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="58"/>
-      <c r="H32" s="58"/>
-      <c r="I32" s="58"/>
-      <c r="J32" s="58"/>
-      <c r="K32" s="58"/>
+      <c r="E32" s="73"/>
+      <c r="F32" s="73"/>
+      <c r="G32" s="73"/>
+      <c r="H32" s="73"/>
+      <c r="I32" s="73"/>
+      <c r="J32" s="73"/>
+      <c r="K32" s="73"/>
       <c r="L32" s="36"/>
       <c r="M32" s="36"/>
       <c r="N32" s="36"/>
@@ -13960,21 +14646,21 @@
       <c r="C33" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="D33" s="59" t="s">
+      <c r="D33" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="E33" s="59"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="59"/>
-      <c r="H33" s="59"/>
-      <c r="I33" s="59"/>
-      <c r="J33" s="59"/>
-      <c r="K33" s="59"/>
-      <c r="L33" s="59"/>
-      <c r="M33" s="59"/>
-      <c r="N33" s="59"/>
-      <c r="O33" s="59"/>
-      <c r="P33" s="59"/>
+      <c r="E33" s="74"/>
+      <c r="F33" s="74"/>
+      <c r="G33" s="74"/>
+      <c r="H33" s="74"/>
+      <c r="I33" s="74"/>
+      <c r="J33" s="74"/>
+      <c r="K33" s="74"/>
+      <c r="L33" s="74"/>
+      <c r="M33" s="74"/>
+      <c r="N33" s="74"/>
+      <c r="O33" s="74"/>
+      <c r="P33" s="74"/>
       <c r="Q33" s="36"/>
       <c r="R33" s="36"/>
       <c r="S33" s="36"/>
@@ -15111,16 +15797,16 @@
       <c r="B46" t="s">
         <v>1</v>
       </c>
-      <c r="D46" s="58" t="s">
+      <c r="D46" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="E46" s="58"/>
-      <c r="F46" s="58"/>
-      <c r="G46" s="58"/>
-      <c r="H46" s="58"/>
-      <c r="I46" s="58"/>
-      <c r="J46" s="58"/>
-      <c r="K46" s="58"/>
+      <c r="E46" s="73"/>
+      <c r="F46" s="73"/>
+      <c r="G46" s="73"/>
+      <c r="H46" s="73"/>
+      <c r="I46" s="73"/>
+      <c r="J46" s="73"/>
+      <c r="K46" s="73"/>
       <c r="L46" s="36"/>
       <c r="M46" s="36"/>
       <c r="N46" s="36"/>
@@ -15144,21 +15830,21 @@
       <c r="C47" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="D47" s="59" t="s">
+      <c r="D47" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="E47" s="59"/>
-      <c r="F47" s="59"/>
-      <c r="G47" s="59"/>
-      <c r="H47" s="59"/>
-      <c r="I47" s="59"/>
-      <c r="J47" s="59"/>
-      <c r="K47" s="59"/>
-      <c r="L47" s="59"/>
-      <c r="M47" s="59"/>
-      <c r="N47" s="59"/>
-      <c r="O47" s="59"/>
-      <c r="P47" s="59"/>
+      <c r="E47" s="74"/>
+      <c r="F47" s="74"/>
+      <c r="G47" s="74"/>
+      <c r="H47" s="74"/>
+      <c r="I47" s="74"/>
+      <c r="J47" s="74"/>
+      <c r="K47" s="74"/>
+      <c r="L47" s="74"/>
+      <c r="M47" s="74"/>
+      <c r="N47" s="74"/>
+      <c r="O47" s="74"/>
+      <c r="P47" s="74"/>
       <c r="Q47" s="36"/>
       <c r="R47" s="36"/>
       <c r="S47" s="36"/>
@@ -16291,84 +16977,84 @@
     <mergeCell ref="D18:J18"/>
   </mergeCells>
   <conditionalFormatting sqref="D43:AA43">
-    <cfRule type="top10" dxfId="99" priority="39" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="98" priority="40" rank="1"/>
+    <cfRule type="top10" dxfId="119" priority="39" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="118" priority="40" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:AA35">
-    <cfRule type="top10" dxfId="97" priority="21" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="96" priority="22" rank="1"/>
+    <cfRule type="top10" dxfId="117" priority="21" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="116" priority="22" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34:AA34">
-    <cfRule type="top10" dxfId="95" priority="23" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="94" priority="24" rank="1"/>
+    <cfRule type="top10" dxfId="115" priority="23" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="114" priority="24" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37:AA37">
-    <cfRule type="top10" dxfId="93" priority="25" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="92" priority="26" rank="1"/>
+    <cfRule type="top10" dxfId="113" priority="25" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="112" priority="26" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36:AA36">
-    <cfRule type="top10" dxfId="91" priority="27" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="90" priority="28" rank="1"/>
+    <cfRule type="top10" dxfId="111" priority="27" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="110" priority="28" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39:AA39">
-    <cfRule type="top10" dxfId="89" priority="29" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="88" priority="30" rank="1"/>
+    <cfRule type="top10" dxfId="109" priority="29" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="108" priority="30" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38:AA38">
-    <cfRule type="top10" dxfId="87" priority="31" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="86" priority="32" rank="1"/>
+    <cfRule type="top10" dxfId="107" priority="31" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="106" priority="32" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41:AA41">
-    <cfRule type="top10" dxfId="85" priority="33" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="84" priority="34" rank="1"/>
+    <cfRule type="top10" dxfId="105" priority="33" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="104" priority="34" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40:AA40">
-    <cfRule type="top10" dxfId="83" priority="35" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="82" priority="36" rank="1"/>
+    <cfRule type="top10" dxfId="103" priority="35" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="102" priority="36" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42:AA42">
-    <cfRule type="top10" dxfId="81" priority="37" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="80" priority="38" rank="1"/>
+    <cfRule type="top10" dxfId="101" priority="37" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="100" priority="38" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49:AA49">
-    <cfRule type="top10" dxfId="79" priority="1" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="78" priority="2" rank="1"/>
+    <cfRule type="top10" dxfId="99" priority="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="98" priority="2" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48:AA48">
-    <cfRule type="top10" dxfId="77" priority="3" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="76" priority="4" rank="1"/>
+    <cfRule type="top10" dxfId="97" priority="3" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="96" priority="4" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51:AA51">
-    <cfRule type="top10" dxfId="75" priority="5" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="74" priority="6" rank="1"/>
+    <cfRule type="top10" dxfId="95" priority="5" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="94" priority="6" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50:AA50">
-    <cfRule type="top10" dxfId="73" priority="7" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="72" priority="8" rank="1"/>
+    <cfRule type="top10" dxfId="93" priority="7" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="92" priority="8" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53:AA53">
-    <cfRule type="top10" dxfId="71" priority="9" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="70" priority="10" rank="1"/>
+    <cfRule type="top10" dxfId="91" priority="9" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="90" priority="10" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52:AA52">
-    <cfRule type="top10" dxfId="69" priority="11" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="68" priority="12" rank="1"/>
+    <cfRule type="top10" dxfId="89" priority="11" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="88" priority="12" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55:AA55">
-    <cfRule type="top10" dxfId="67" priority="13" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="66" priority="14" rank="1"/>
+    <cfRule type="top10" dxfId="87" priority="13" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="86" priority="14" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D54:AA54">
-    <cfRule type="top10" dxfId="65" priority="15" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="64" priority="16" rank="1"/>
+    <cfRule type="top10" dxfId="85" priority="15" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="84" priority="16" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D56:AA56">
-    <cfRule type="top10" dxfId="63" priority="17" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="62" priority="18" rank="1"/>
+    <cfRule type="top10" dxfId="83" priority="17" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="82" priority="18" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57:AA57">
-    <cfRule type="top10" dxfId="61" priority="19" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="60" priority="20" rank="1"/>
+    <cfRule type="top10" dxfId="81" priority="19" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="80" priority="20" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16376,10 +17062,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C524971D-6051-40C1-B0A1-11F9D7FDCF65}">
+  <sheetPr codeName="Foglio4"/>
   <dimension ref="A2:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29:F29"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16877,17 +17564,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7966B4A-BD72-4AB7-AA6D-CA8E4CEBADE5}">
-  <dimension ref="A2:W21"/>
+  <sheetPr codeName="Foglio5"/>
+  <dimension ref="A2:W75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W25" sqref="W25"/>
+    <sheetView tabSelected="1" topLeftCell="F28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R60" sqref="R60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="14" width="8.88671875" style="55"/>
+    <col min="1" max="1" width="8.88671875" style="55"/>
+    <col min="2" max="2" width="15.21875" style="55" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="6" max="14" width="8.88671875" style="55"/>
     <col min="15" max="15" width="19.6640625" style="55" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.77734375" style="55" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.5546875" style="55" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="14.109375" style="55" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="6" style="55" bestFit="1" customWidth="1"/>
     <col min="20" max="22" width="8.88671875" style="55"/>
@@ -16896,36 +17589,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="F2" s="60" t="s">
+      <c r="F2" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="62"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="78"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59" t="s">
+      <c r="C3" s="74"/>
+      <c r="D3" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59">
+      <c r="E3" s="74"/>
+      <c r="F3" s="74">
         <v>32</v>
       </c>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59">
+      <c r="G3" s="74"/>
+      <c r="H3" s="74">
         <v>64</v>
       </c>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59">
+      <c r="I3" s="74"/>
+      <c r="J3" s="74">
         <v>128</v>
       </c>
-      <c r="K3" s="59"/>
+      <c r="K3" s="74"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B4" s="55" t="s">
@@ -16958,9 +17651,17 @@
       <c r="K4" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="O4" s="55" t="s">
-        <v>27</v>
-      </c>
+      <c r="O4" s="74" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" s="74"/>
+      <c r="Q4" s="74"/>
+      <c r="R4" s="74"/>
+      <c r="S4" s="74"/>
+      <c r="T4" s="74"/>
+      <c r="U4" s="74"/>
+      <c r="V4" s="74"/>
+      <c r="W4" s="74"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="55">
@@ -16996,29 +17697,32 @@
       <c r="K5" s="17">
         <v>85.763900000000007</v>
       </c>
+      <c r="N5" s="79" t="s">
+        <v>68</v>
+      </c>
       <c r="P5" s="55" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q5" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="R5" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="R5" s="55" t="s">
-        <v>29</v>
-      </c>
       <c r="S5" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="T5" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="U5" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="T5" s="55" t="s">
+      <c r="V5" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="U5" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="V5" s="55" t="s">
+      <c r="W5" s="55" t="s">
         <v>60</v>
-      </c>
-      <c r="W5" s="55" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
@@ -17055,11 +17759,12 @@
       <c r="K6" s="20">
         <v>77.083299999999994</v>
       </c>
-      <c r="O6" s="64" t="s">
-        <v>45</v>
+      <c r="N6" s="79"/>
+      <c r="O6" s="75" t="s">
+        <v>43</v>
       </c>
       <c r="P6" s="55" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q6" s="55">
         <v>1</v>
@@ -17068,19 +17773,19 @@
         <v>8</v>
       </c>
       <c r="S6" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="T6" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="T6" s="55" t="s">
+      <c r="U6" s="55" t="s">
         <v>31</v>
-      </c>
-      <c r="U6" s="55" t="s">
-        <v>32</v>
       </c>
       <c r="V6" s="55">
         <v>1</v>
       </c>
       <c r="W6" s="55" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
@@ -17117,30 +17822,31 @@
       <c r="K7" s="20">
         <v>89.9305555555556</v>
       </c>
-      <c r="O7" s="64"/>
+      <c r="N7" s="79"/>
+      <c r="O7" s="75"/>
       <c r="P7" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q7" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="Q7" s="55" t="s">
+      <c r="R7" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="S7" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="T7" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="U7" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="V7" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="W7" s="55" t="s">
         <v>35</v>
-      </c>
-      <c r="R7" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="S7" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="T7" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="U7" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="V7" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="W7" s="55" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
@@ -17177,9 +17883,10 @@
       <c r="K8" s="20">
         <v>78.125</v>
       </c>
-      <c r="O8" s="64"/>
+      <c r="N8" s="79"/>
+      <c r="O8" s="75"/>
       <c r="P8" s="55" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q8" s="55">
         <v>8</v>
@@ -17188,10 +17895,10 @@
         <v>16</v>
       </c>
       <c r="S8" s="55" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T8" s="55" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U8" s="55">
         <v>0</v>
@@ -17200,7 +17907,7 @@
         <v>8</v>
       </c>
       <c r="W8" s="55" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
@@ -17237,30 +17944,31 @@
       <c r="K9" s="20">
         <v>84.027799999999999</v>
       </c>
-      <c r="O9" s="64"/>
+      <c r="N9" s="79"/>
+      <c r="O9" s="75"/>
       <c r="P9" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q9" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="Q9" s="55" t="s">
+      <c r="R9" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="S9" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="T9" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="U9" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="V9" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="W9" s="55" t="s">
         <v>35</v>
-      </c>
-      <c r="R9" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="S9" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="T9" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="U9" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="V9" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="W9" s="55" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
@@ -17297,30 +18005,31 @@
       <c r="K10" s="20">
         <v>86.1111111111111</v>
       </c>
-      <c r="O10" s="64"/>
-      <c r="P10" s="55" t="s">
-        <v>38</v>
+      <c r="N10" s="79"/>
+      <c r="O10" s="75"/>
+      <c r="P10" s="58" t="s">
+        <v>65</v>
       </c>
       <c r="Q10" s="55" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R10" s="55" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S10" s="55" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T10" s="55" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U10" s="55" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V10" s="55" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="W10" s="55" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
@@ -17357,30 +18066,31 @@
       <c r="K11" s="20">
         <v>88.888900000000007</v>
       </c>
-      <c r="O11" s="64"/>
+      <c r="N11" s="79"/>
+      <c r="O11" s="75"/>
       <c r="P11" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q11" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="R11" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="S11" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="Q11" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="R11" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="S11" s="55" t="s">
-        <v>42</v>
-      </c>
       <c r="T11" s="55" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="U11" s="55">
         <v>0</v>
       </c>
       <c r="V11" s="55" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="W11" s="55" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
@@ -17417,30 +18127,31 @@
       <c r="K12" s="20">
         <v>89.236099999999993</v>
       </c>
-      <c r="O12" s="64"/>
+      <c r="N12" s="79"/>
+      <c r="O12" s="75"/>
       <c r="P12" s="55" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Q12" s="55" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R12" s="55" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S12" s="55" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T12" s="55" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U12" s="55" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V12" s="55" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="W12" s="55" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
@@ -17477,11 +18188,12 @@
       <c r="K13" s="20">
         <v>94.444400000000002</v>
       </c>
-      <c r="O13" s="64" t="s">
-        <v>51</v>
+      <c r="N13" s="79"/>
+      <c r="O13" s="75" t="s">
+        <v>49</v>
       </c>
       <c r="P13" s="55" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q13" s="55">
         <v>16</v>
@@ -17490,19 +18202,19 @@
         <v>16</v>
       </c>
       <c r="S13" s="55" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="T13" s="55" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U13" s="55" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="V13" s="55">
         <v>16</v>
       </c>
       <c r="W13" s="55" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
@@ -17539,9 +18251,10 @@
       <c r="K14" s="24">
         <v>85.956785185185183</v>
       </c>
-      <c r="O14" s="64"/>
+      <c r="N14" s="79"/>
+      <c r="O14" s="75"/>
       <c r="P14" s="55" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q14" s="55">
         <v>16</v>
@@ -17550,10 +18263,10 @@
         <v>16</v>
       </c>
       <c r="S14" s="55" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T14" s="55" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U14" s="55">
         <v>0</v>
@@ -17562,232 +18275,1652 @@
         <v>1</v>
       </c>
       <c r="W14" s="55" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="O15" s="64"/>
+      <c r="N15" s="79"/>
+      <c r="O15" s="75"/>
       <c r="P15" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q15" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="Q15" s="55" t="s">
+      <c r="R15" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="S15" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="T15" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="U15" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="V15" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="W15" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="R15" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="S15" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="T15" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="U15" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="V15" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="W15" s="55" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="O16" s="64"/>
-      <c r="P16" s="55" t="s">
+      <c r="N16" s="79"/>
+      <c r="O16" s="75"/>
+      <c r="P16" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q16" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="R16" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="S16" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="T16" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="U16" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="V16" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="W16" s="55" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="N17" s="79"/>
+      <c r="O17" s="75"/>
+      <c r="P17" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="Q16" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="R16" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="S16" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="T16" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="U16" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="V16" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="W16" s="55" t="s">
+      <c r="Q17" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="R17" s="55" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="17" spans="15:23" x14ac:dyDescent="0.3">
-      <c r="O17" s="64"/>
-      <c r="P17" s="55" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q17" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="R17" s="55" t="s">
+      <c r="S17" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="T17" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="U17" s="55">
+        <v>0</v>
+      </c>
+      <c r="V17" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="W17" s="55" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="N18" s="79"/>
+      <c r="O18" s="75"/>
+      <c r="P18" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="S17" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="T17" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="U17" s="55">
-        <v>0</v>
-      </c>
-      <c r="V17" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="W17" s="55" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="15:23" x14ac:dyDescent="0.3">
-      <c r="O18" s="64"/>
-      <c r="P18" s="55" t="s">
-        <v>43</v>
-      </c>
       <c r="Q18" s="55" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R18" s="55" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S18" s="55" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T18" s="55" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U18" s="55" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V18" s="55" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="W18" s="55" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B19" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="N19" s="79"/>
+      <c r="P19" s="55" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="19" spans="15:23" x14ac:dyDescent="0.3">
-      <c r="P19" s="55" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q19" s="59" t="s">
-        <v>53</v>
-      </c>
-      <c r="R19" s="59"/>
-      <c r="S19" s="59"/>
-      <c r="T19" s="59" t="s">
+      <c r="Q19" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="R19" s="74"/>
+      <c r="S19" s="74"/>
+      <c r="T19" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="U19" s="74"/>
+      <c r="V19" s="74"/>
+      <c r="W19" s="55" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B20" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="N20" s="79"/>
+      <c r="O20" s="75" t="s">
         <v>54</v>
-      </c>
-      <c r="U19" s="59"/>
-      <c r="V19" s="59"/>
-      <c r="W19" s="55" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="15:23" x14ac:dyDescent="0.3">
-      <c r="O20" s="64" t="s">
-        <v>56</v>
       </c>
       <c r="P20" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="Q20" s="59" t="s">
+      <c r="Q20" s="74" t="s">
+        <v>34</v>
+      </c>
+      <c r="R20" s="74"/>
+      <c r="S20" s="74"/>
+      <c r="T20" s="74" t="s">
+        <v>34</v>
+      </c>
+      <c r="U20" s="74"/>
+      <c r="V20" s="74"/>
+      <c r="W20" s="55" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A21" s="55">
+        <v>1</v>
+      </c>
+      <c r="B21" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="N21" s="79"/>
+      <c r="O21" s="75"/>
+      <c r="P21" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q21" s="74">
+        <v>256</v>
+      </c>
+      <c r="R21" s="74"/>
+      <c r="S21" s="74"/>
+      <c r="T21" s="74">
+        <v>128</v>
+      </c>
+      <c r="U21" s="74"/>
+      <c r="V21" s="74"/>
+      <c r="W21" s="55" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A22" s="55">
+        <v>2</v>
+      </c>
+      <c r="B22" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" s="55" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A23" s="55">
+        <v>3</v>
+      </c>
+      <c r="B23" s="55" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="N23" s="79" t="s">
+        <v>69</v>
+      </c>
+      <c r="O23" s="58"/>
+      <c r="P23" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q23" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="R23" s="74"/>
+      <c r="S23" s="74"/>
+      <c r="T23" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="U23" s="74"/>
+      <c r="V23" s="74"/>
+      <c r="W23" s="58" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A24" s="55">
+        <v>4</v>
+      </c>
+      <c r="B24" s="55" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="55" t="s">
+        <v>110</v>
+      </c>
+      <c r="N24" s="79"/>
+      <c r="O24" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="P24" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q24" s="74" t="s">
+        <v>34</v>
+      </c>
+      <c r="R24" s="74"/>
+      <c r="S24" s="74"/>
+      <c r="T24" s="74" t="s">
+        <v>34</v>
+      </c>
+      <c r="U24" s="74"/>
+      <c r="V24" s="74"/>
+      <c r="W24" s="58" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A25" s="55">
+        <v>5</v>
+      </c>
+      <c r="B25" s="55" t="s">
+        <v>111</v>
+      </c>
+      <c r="C25" s="55" t="s">
+        <v>112</v>
+      </c>
+      <c r="N25" s="79"/>
+      <c r="O25" s="75"/>
+      <c r="P25" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q25" s="74">
+        <v>64</v>
+      </c>
+      <c r="R25" s="74"/>
+      <c r="S25" s="74"/>
+      <c r="T25" s="74">
+        <v>256</v>
+      </c>
+      <c r="U25" s="74"/>
+      <c r="V25" s="74"/>
+      <c r="W25" s="58" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A26" s="55">
+        <v>6</v>
+      </c>
+      <c r="B26" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" s="55" t="s">
+        <v>114</v>
+      </c>
+      <c r="N26" s="79"/>
+      <c r="O26" s="58"/>
+      <c r="P26" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q26" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="R26" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="S26" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="T26" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="U26" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="V26" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="W26" s="58" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A27" s="55">
+        <v>7</v>
+      </c>
+      <c r="B27" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="C27" s="55" t="s">
+        <v>116</v>
+      </c>
+      <c r="N27" s="79"/>
+      <c r="O27" s="75" t="s">
+        <v>43</v>
+      </c>
+      <c r="P27" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q27" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="R27" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="S27" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="T27" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="U27" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="V27" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="W27" s="58" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A28" s="55">
+        <v>8</v>
+      </c>
+      <c r="B28" s="55" t="s">
+        <v>117</v>
+      </c>
+      <c r="C28" s="55" t="s">
+        <v>118</v>
+      </c>
+      <c r="N28" s="79"/>
+      <c r="O28" s="75"/>
+      <c r="P28" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q28" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="R28" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="S28" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="T28" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="U28" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="V28" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="W28" s="58" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A29" s="55">
+        <v>9</v>
+      </c>
+      <c r="B29" s="55" t="s">
+        <v>119</v>
+      </c>
+      <c r="C29" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="N29" s="79"/>
+      <c r="O29" s="75"/>
+      <c r="P29" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q29" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="R29" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="S29" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="T29" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="U29" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="V29" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="W29" s="58" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A30" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="C30" s="55" t="s">
+        <v>122</v>
+      </c>
+      <c r="N30" s="79"/>
+      <c r="O30" s="75"/>
+      <c r="P30" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q30" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="R30" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="S30" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="T30" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="U30" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="V30" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="W30" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="R20" s="59"/>
-      <c r="S20" s="59"/>
-      <c r="T20" s="59" t="s">
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="N31" s="79"/>
+      <c r="O31" s="75"/>
+      <c r="P31" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q31" s="58">
+        <v>16</v>
+      </c>
+      <c r="R31" s="58">
+        <v>16</v>
+      </c>
+      <c r="S31" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="T31" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="U31" s="58">
+        <v>0</v>
+      </c>
+      <c r="V31" s="58">
+        <v>1</v>
+      </c>
+      <c r="W31" s="58" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="N32" s="79"/>
+      <c r="O32" s="75"/>
+      <c r="P32" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q32" s="58">
+        <v>16</v>
+      </c>
+      <c r="R32" s="58">
+        <v>16</v>
+      </c>
+      <c r="S32" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="T32" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="U32" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="V32" s="58">
+        <v>16</v>
+      </c>
+      <c r="W32" s="58" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="14:23" x14ac:dyDescent="0.3">
+      <c r="N33" s="79"/>
+      <c r="O33" s="75" t="s">
+        <v>49</v>
+      </c>
+      <c r="P33" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q33" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="R33" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="S33" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="T33" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="U33" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="V33" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="W33" s="58" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="14:23" x14ac:dyDescent="0.3">
+      <c r="N34" s="79"/>
+      <c r="O34" s="75"/>
+      <c r="P34" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q34" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="R34" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="S34" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="T34" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="U34" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="V34" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="W34" s="58" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="14:23" x14ac:dyDescent="0.3">
+      <c r="N35" s="79"/>
+      <c r="O35" s="75"/>
+      <c r="P35" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q35" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="R35" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="S35" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="T35" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="U35" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="V35" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="W35" s="58" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="14:23" x14ac:dyDescent="0.3">
+      <c r="N36" s="79"/>
+      <c r="O36" s="75"/>
+      <c r="P36" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q36" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="R36" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="S36" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="T36" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="U36" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="V36" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="W36" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="U20" s="59"/>
-      <c r="V20" s="59"/>
-      <c r="W20" s="55" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="15:23" x14ac:dyDescent="0.3">
-      <c r="O21" s="64"/>
-      <c r="P21" s="55" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q21" s="59">
-        <v>256</v>
-      </c>
-      <c r="R21" s="59"/>
-      <c r="S21" s="59"/>
-      <c r="T21" s="59">
-        <v>128</v>
-      </c>
-      <c r="U21" s="59"/>
-      <c r="V21" s="59"/>
-      <c r="W21" s="55" t="s">
+    </row>
+    <row r="37" spans="14:23" x14ac:dyDescent="0.3">
+      <c r="N37" s="79"/>
+      <c r="O37" s="75"/>
+      <c r="P37" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q37" s="58">
+        <v>16</v>
+      </c>
+      <c r="R37" s="58">
+        <v>8</v>
+      </c>
+      <c r="S37" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="T37" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="U37" s="58">
+        <v>0</v>
+      </c>
+      <c r="V37" s="58">
+        <v>8</v>
+      </c>
+      <c r="W37" s="58" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="14:23" x14ac:dyDescent="0.3">
+      <c r="N38" s="79"/>
+      <c r="O38" s="75"/>
+      <c r="P38" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q38" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="R38" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="S38" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="T38" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="U38" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="V38" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="W38" s="58" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="14:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N39" s="79"/>
+      <c r="O39" s="75"/>
+      <c r="P39" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q39" s="58">
+        <v>8</v>
+      </c>
+      <c r="R39" s="58">
+        <v>1</v>
+      </c>
+      <c r="S39" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="T39" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="U39" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="V39" s="58">
+        <v>1</v>
+      </c>
+      <c r="W39" s="58" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="J50" s="74" t="s">
+        <v>21</v>
+      </c>
+      <c r="K50" s="74"/>
+    </row>
+    <row r="51" spans="9:22" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="J51" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="K51" s="69" t="s">
+        <v>74</v>
+      </c>
+      <c r="L51" s="69" t="s">
+        <v>75</v>
+      </c>
+      <c r="M51" s="69" t="s">
+        <v>76</v>
+      </c>
+      <c r="N51" s="69" t="s">
+        <v>77</v>
+      </c>
+      <c r="O51" s="69" t="s">
+        <v>78</v>
+      </c>
+      <c r="P51" s="69" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q51" s="69" t="s">
+        <v>80</v>
+      </c>
+      <c r="R51" s="69" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="I52" s="1">
+        <v>1</v>
+      </c>
+      <c r="J52" s="63">
+        <v>84.837970370370357</v>
+      </c>
+      <c r="K52" s="16">
+        <v>76</v>
+      </c>
+      <c r="L52" s="62">
+        <v>82.12</v>
+      </c>
+      <c r="M52" s="62">
+        <v>83.13</v>
+      </c>
+      <c r="N52" s="62">
+        <v>82.29</v>
+      </c>
+      <c r="O52" s="62">
+        <v>86.11</v>
+      </c>
+      <c r="P52" s="62">
+        <v>67.88</v>
+      </c>
+      <c r="Q52" s="62">
+        <v>83.2</v>
+      </c>
+      <c r="R52" s="17">
+        <v>86.607100000000003</v>
+      </c>
+      <c r="U52" s="70">
+        <v>41</v>
+      </c>
+      <c r="V52" s="68" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="53" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="I53" s="6">
+        <v>2</v>
+      </c>
+      <c r="J53" s="64">
+        <v>75.231481481481467</v>
+      </c>
+      <c r="K53" s="18">
+        <v>56.5</v>
+      </c>
+      <c r="L53" s="19">
+        <v>44.86</v>
+      </c>
+      <c r="M53" s="19">
+        <v>65.45</v>
+      </c>
+      <c r="N53" s="19">
+        <v>60.42</v>
+      </c>
+      <c r="O53" s="19">
+        <v>60.76</v>
+      </c>
+      <c r="P53" s="19">
+        <v>42.18</v>
+      </c>
+      <c r="Q53" s="19">
+        <v>65.69</v>
+      </c>
+      <c r="R53" s="20">
+        <v>61.261299999999999</v>
+      </c>
+      <c r="U53" s="70" t="s">
+        <v>72</v>
+      </c>
+      <c r="V53" s="71" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="54" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="I54" s="6">
+        <v>3</v>
+      </c>
+      <c r="J54" s="64">
+        <v>90.149174074074082</v>
+      </c>
+      <c r="K54" s="18">
+        <v>81.25</v>
+      </c>
+      <c r="L54" s="19">
+        <v>86.6</v>
+      </c>
+      <c r="M54" s="19">
+        <v>80.290000000000006</v>
+      </c>
+      <c r="N54" s="19">
+        <v>82.99</v>
+      </c>
+      <c r="O54" s="19">
+        <v>86.81</v>
+      </c>
+      <c r="P54" s="19">
+        <v>77.87</v>
+      </c>
+      <c r="Q54" s="19">
+        <v>90.29</v>
+      </c>
+      <c r="R54" s="20">
+        <v>87.2727</v>
+      </c>
+      <c r="U54" s="70">
+        <v>46</v>
+      </c>
+      <c r="V54" s="72" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="55" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="I55" s="6">
+        <v>4</v>
+      </c>
+      <c r="J55" s="64">
+        <v>75.270066666666665</v>
+      </c>
+      <c r="K55" s="18">
+        <v>61</v>
+      </c>
+      <c r="L55" s="19">
+        <v>66.28</v>
+      </c>
+      <c r="M55" s="19">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="N55" s="19">
+        <v>72.569999999999993</v>
+      </c>
+      <c r="O55" s="19">
+        <v>67.36</v>
+      </c>
+      <c r="P55" s="19">
+        <v>51.77</v>
+      </c>
+      <c r="Q55" s="19">
+        <v>69.42</v>
+      </c>
+      <c r="R55" s="20">
+        <v>75.2</v>
+      </c>
+      <c r="U55" s="70">
+        <v>42</v>
+      </c>
+      <c r="V55" s="68" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="56" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="I56" s="6">
+        <v>5</v>
+      </c>
+      <c r="J56" s="64">
+        <v>82.381688888888903</v>
+      </c>
+      <c r="K56" s="18">
         <v>55</v>
       </c>
+      <c r="L56" s="19">
+        <v>48.72</v>
+      </c>
+      <c r="M56" s="19">
+        <v>76.7</v>
+      </c>
+      <c r="N56" s="19">
+        <v>60.07</v>
+      </c>
+      <c r="O56" s="19">
+        <v>62.5</v>
+      </c>
+      <c r="P56" s="19">
+        <v>50.17</v>
+      </c>
+      <c r="Q56" s="19">
+        <v>61.65</v>
+      </c>
+      <c r="R56" s="20">
+        <v>64.545500000000004</v>
+      </c>
+      <c r="U56" s="70">
+        <v>44</v>
+      </c>
+      <c r="V56" s="68" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="57" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="I57" s="6">
+        <v>6</v>
+      </c>
+      <c r="J57" s="64">
+        <v>84.760803703703687</v>
+      </c>
+      <c r="K57" s="18">
+        <v>45.25</v>
+      </c>
+      <c r="L57" s="19">
+        <v>53.3</v>
+      </c>
+      <c r="M57" s="19">
+        <v>71.12</v>
+      </c>
+      <c r="N57" s="19">
+        <v>44.1</v>
+      </c>
+      <c r="O57" s="19">
+        <v>45.14</v>
+      </c>
+      <c r="P57" s="19">
+        <v>45.97</v>
+      </c>
+      <c r="Q57" s="19">
+        <v>60.74</v>
+      </c>
+      <c r="R57" s="20">
+        <v>65.909099999999995</v>
+      </c>
+      <c r="U57" s="70" t="s">
+        <v>73</v>
+      </c>
+      <c r="V57" s="68" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="58" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="I58" s="6">
+        <v>7</v>
+      </c>
+      <c r="J58" s="64">
+        <v>87.229940740740744</v>
+      </c>
+      <c r="K58" s="18">
+        <v>82.75</v>
+      </c>
+      <c r="L58" s="19">
+        <v>72.64</v>
+      </c>
+      <c r="M58" s="19">
+        <v>84</v>
+      </c>
+      <c r="N58" s="19">
+        <v>86.11</v>
+      </c>
+      <c r="O58" s="19">
+        <v>90.63</v>
+      </c>
+      <c r="P58" s="19">
+        <v>87.5</v>
+      </c>
+      <c r="Q58" s="19">
+        <v>85.18</v>
+      </c>
+      <c r="R58" s="20">
+        <v>83.783799999999999</v>
+      </c>
+      <c r="U58" s="70" t="s">
+        <v>89</v>
+      </c>
+      <c r="V58" s="35" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="I59" s="6">
+        <v>8</v>
+      </c>
+      <c r="J59" s="64">
+        <v>88.978903703703708</v>
+      </c>
+      <c r="K59" s="18">
+        <v>81.25</v>
+      </c>
+      <c r="L59" s="19">
+        <v>82.33</v>
+      </c>
+      <c r="M59" s="19">
+        <v>82.66</v>
+      </c>
+      <c r="N59" s="19">
+        <v>77.08</v>
+      </c>
+      <c r="O59" s="19">
+        <v>81.25</v>
+      </c>
+      <c r="P59" s="19">
+        <v>85.79</v>
+      </c>
+      <c r="Q59" s="19">
+        <v>84.21</v>
+      </c>
+      <c r="R59" s="20">
+        <v>89.908299999999997</v>
+      </c>
+      <c r="U59" s="70" t="s">
+        <v>85</v>
+      </c>
+      <c r="V59" s="68" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="60" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="I60" s="6">
+        <v>9</v>
+      </c>
+      <c r="J60" s="64">
+        <v>91.769548148148132</v>
+      </c>
+      <c r="K60" s="18">
+        <v>70.75</v>
+      </c>
+      <c r="L60" s="19">
+        <v>76.349999999999994</v>
+      </c>
+      <c r="M60" s="19">
+        <v>80.739999999999995</v>
+      </c>
+      <c r="N60" s="19">
+        <v>75</v>
+      </c>
+      <c r="O60" s="19">
+        <v>77.08</v>
+      </c>
+      <c r="P60" s="19">
+        <v>76.31</v>
+      </c>
+      <c r="Q60" s="19">
+        <v>85.48</v>
+      </c>
+      <c r="R60" s="20">
+        <v>92.0792</v>
+      </c>
+      <c r="U60" s="70" t="s">
+        <v>86</v>
+      </c>
+      <c r="V60" s="68" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="61" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="I61" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="J61" s="66">
+        <v>84.512175308641972</v>
+      </c>
+      <c r="K61" s="23">
+        <v>67.75</v>
+      </c>
+      <c r="L61" s="67">
+        <v>68.13</v>
+      </c>
+      <c r="M61" s="67">
+        <v>78.41</v>
+      </c>
+      <c r="N61" s="67">
+        <v>71.180000000000007</v>
+      </c>
+      <c r="O61" s="67">
+        <v>73.069999999999993</v>
+      </c>
+      <c r="P61" s="67">
+        <v>65.05</v>
+      </c>
+      <c r="Q61" s="67">
+        <v>76.44</v>
+      </c>
+      <c r="R61" s="24">
+        <v>78.507400000000004</v>
+      </c>
+      <c r="U61" s="70" t="s">
+        <v>84</v>
+      </c>
+      <c r="V61" s="68" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="62" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="U62" s="70" t="s">
+        <v>87</v>
+      </c>
+      <c r="V62" s="68" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="64" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="J64" s="74" t="s">
+        <v>71</v>
+      </c>
+      <c r="K64" s="74"/>
+    </row>
+    <row r="65" spans="9:18" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="J65" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="K65" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="L65" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="M65" s="69" t="s">
+        <v>76</v>
+      </c>
+      <c r="N65" s="69" t="s">
+        <v>77</v>
+      </c>
+      <c r="O65" s="69" t="s">
+        <v>78</v>
+      </c>
+      <c r="P65" s="69" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q65" s="69" t="s">
+        <v>100</v>
+      </c>
+      <c r="R65" s="69" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="66" spans="9:18" x14ac:dyDescent="0.3">
+      <c r="I66" s="1">
+        <v>1</v>
+      </c>
+      <c r="J66" s="63">
+        <v>0.80131183333333322</v>
+      </c>
+      <c r="K66" s="16">
+        <v>0.86</v>
+      </c>
+      <c r="L66" s="62">
+        <v>0.64810000000000001</v>
+      </c>
+      <c r="M66" s="62">
+        <v>0.67</v>
+      </c>
+      <c r="N66" s="62">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="O66" s="62">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="P66" s="62">
+        <v>0.74070000000000003</v>
+      </c>
+      <c r="Q66" s="62">
+        <v>0.7</v>
+      </c>
+      <c r="R66" s="17">
+        <v>0.82140000000000002</v>
+      </c>
+    </row>
+    <row r="67" spans="9:18" x14ac:dyDescent="0.3">
+      <c r="I67" s="6">
+        <v>2</v>
+      </c>
+      <c r="J67" s="64">
+        <v>0.67554016666666661</v>
+      </c>
+      <c r="K67" s="18">
+        <v>0.24</v>
+      </c>
+      <c r="L67" s="19">
+        <v>0.36570000000000003</v>
+      </c>
+      <c r="M67" s="19">
+        <v>0.35</v>
+      </c>
+      <c r="N67" s="19">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="O67" s="19">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="P67" s="19">
+        <v>0.26850000000000002</v>
+      </c>
+      <c r="Q67" s="19">
+        <v>0.32</v>
+      </c>
+      <c r="R67" s="20">
+        <v>0.48380000000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="9:18" x14ac:dyDescent="0.3">
+      <c r="I68" s="6">
+        <v>3</v>
+      </c>
+      <c r="J68" s="64">
+        <v>0.87345675</v>
+      </c>
+      <c r="K68" s="18">
+        <v>0.7</v>
+      </c>
+      <c r="L68" s="19">
+        <v>0.66320000000000001</v>
+      </c>
+      <c r="M68" s="19">
+        <v>0.65</v>
+      </c>
+      <c r="N68" s="19">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="O68" s="19">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="P68" s="19">
+        <v>0.76849999999999996</v>
+      </c>
+      <c r="Q68" s="19">
+        <v>0.75</v>
+      </c>
+      <c r="R68" s="20">
+        <v>0.76959999999999995</v>
+      </c>
+    </row>
+    <row r="69" spans="9:18" x14ac:dyDescent="0.3">
+      <c r="I69" s="6">
+        <v>4</v>
+      </c>
+      <c r="J69" s="64">
+        <v>0.66435183333333336</v>
+      </c>
+      <c r="K69" s="18">
+        <v>0.68</v>
+      </c>
+      <c r="L69" s="19">
+        <v>0.50460000000000005</v>
+      </c>
+      <c r="M69" s="19">
+        <v>0.62</v>
+      </c>
+      <c r="N69" s="19">
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="O69" s="19">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="P69" s="19">
+        <v>0.4259</v>
+      </c>
+      <c r="Q69" s="19">
+        <v>0.54</v>
+      </c>
+      <c r="R69" s="20">
+        <v>0.66639999999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="9:18" x14ac:dyDescent="0.3">
+      <c r="I70" s="6">
+        <v>5</v>
+      </c>
+      <c r="J70" s="64">
+        <v>0.75964508333333336</v>
+      </c>
+      <c r="K70" s="18">
+        <v>0.36</v>
+      </c>
+      <c r="L70" s="19">
+        <v>0.3241</v>
+      </c>
+      <c r="M70" s="19">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="N70" s="19">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="O70" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="P70" s="19">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="Q70" s="19">
+        <v>0.32</v>
+      </c>
+      <c r="R70" s="20">
+        <v>0.50239999999999996</v>
+      </c>
+    </row>
+    <row r="71" spans="9:18" x14ac:dyDescent="0.3">
+      <c r="I71" s="6">
+        <v>6</v>
+      </c>
+      <c r="J71" s="64">
+        <v>0.79591050000000008</v>
+      </c>
+      <c r="K71" s="18">
+        <v>0.34</v>
+      </c>
+      <c r="L71" s="19">
+        <v>0.29630000000000001</v>
+      </c>
+      <c r="M71" s="19">
+        <v>0.45</v>
+      </c>
+      <c r="N71" s="19">
+        <v>0.255</v>
+      </c>
+      <c r="O71" s="19">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="P71" s="19">
+        <v>0.26850000000000002</v>
+      </c>
+      <c r="Q71" s="19">
+        <v>0.34</v>
+      </c>
+      <c r="R71" s="20">
+        <v>0.53010000000000002</v>
+      </c>
+    </row>
+    <row r="72" spans="9:18" x14ac:dyDescent="0.3">
+      <c r="I72" s="6">
+        <v>7</v>
+      </c>
+      <c r="J72" s="64">
+        <v>0.83449083333333329</v>
+      </c>
+      <c r="K72" s="18">
+        <v>0.66</v>
+      </c>
+      <c r="L72" s="19">
+        <v>0.71879999999999999</v>
+      </c>
+      <c r="M72" s="19">
+        <v>0.69</v>
+      </c>
+      <c r="N72" s="19">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="O72" s="19">
+        <v>0.875</v>
+      </c>
+      <c r="P72" s="19">
+        <v>0.73150000000000004</v>
+      </c>
+      <c r="Q72" s="19">
+        <v>0.7</v>
+      </c>
+      <c r="R72" s="20">
+        <v>0.78369999999999995</v>
+      </c>
+    </row>
+    <row r="73" spans="9:18" x14ac:dyDescent="0.3">
+      <c r="I73" s="6">
+        <v>8</v>
+      </c>
+      <c r="J73" s="64">
+        <v>0.85069449999999991</v>
+      </c>
+      <c r="K73" s="18">
+        <v>0.75</v>
+      </c>
+      <c r="L73" s="19">
+        <v>0.63539999999999996</v>
+      </c>
+      <c r="M73" s="19">
+        <v>0.7</v>
+      </c>
+      <c r="N73" s="19">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="O73" s="19">
+        <v>0.75</v>
+      </c>
+      <c r="P73" s="19">
+        <v>0.76849999999999996</v>
+      </c>
+      <c r="Q73" s="19">
+        <v>0.69</v>
+      </c>
+      <c r="R73" s="20">
+        <v>0.86550000000000005</v>
+      </c>
+    </row>
+    <row r="74" spans="9:18" x14ac:dyDescent="0.3">
+      <c r="I74" s="6">
+        <v>9</v>
+      </c>
+      <c r="J74" s="64">
+        <v>0.89004649999999985</v>
+      </c>
+      <c r="K74" s="18">
+        <v>0.82</v>
+      </c>
+      <c r="L74" s="19">
+        <v>0.64580000000000004</v>
+      </c>
+      <c r="M74" s="19">
+        <v>0.64</v>
+      </c>
+      <c r="N74" s="19">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="O74" s="19">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="P74" s="19">
+        <v>0.79630000000000001</v>
+      </c>
+      <c r="Q74" s="19">
+        <v>0.77</v>
+      </c>
+      <c r="R74" s="20">
+        <v>0.89419999999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="9:18" x14ac:dyDescent="0.3">
+      <c r="I75" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="J75" s="66">
+        <v>0.79393866666666657</v>
+      </c>
+      <c r="K75" s="23">
+        <v>0.6</v>
+      </c>
+      <c r="L75" s="67">
+        <v>0.53359999999999996</v>
+      </c>
+      <c r="M75" s="67">
+        <v>0.59</v>
+      </c>
+      <c r="N75" s="67">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="O75" s="67">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="P75" s="67">
+        <v>0.56169999999999998</v>
+      </c>
+      <c r="Q75" s="67">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="R75" s="24">
+        <v>0.62780000000000002</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="29">
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="N23:N39"/>
+    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="O27:O32"/>
+    <mergeCell ref="O33:O39"/>
+    <mergeCell ref="T23:V23"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="T24:V24"/>
+    <mergeCell ref="Q25:S25"/>
+    <mergeCell ref="T25:V25"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="Q20:S20"/>
+    <mergeCell ref="O6:O12"/>
+    <mergeCell ref="O13:O18"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="O4:W4"/>
+    <mergeCell ref="N5:N21"/>
     <mergeCell ref="T21:V21"/>
     <mergeCell ref="T19:V19"/>
     <mergeCell ref="Q19:S19"/>
     <mergeCell ref="Q21:S21"/>
     <mergeCell ref="T20:V20"/>
-    <mergeCell ref="Q20:S20"/>
-    <mergeCell ref="O6:O12"/>
-    <mergeCell ref="O13:O18"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:K6">
-    <cfRule type="top10" dxfId="59" priority="1" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="58" priority="2" rank="1"/>
+    <cfRule type="top10" dxfId="79" priority="80" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="78" priority="81" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="top10" dxfId="57" priority="3" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="56" priority="4" rank="1"/>
+    <cfRule type="top10" dxfId="77" priority="82" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="76" priority="83" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:K8">
-    <cfRule type="top10" dxfId="55" priority="5" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="54" priority="6" rank="1"/>
+    <cfRule type="top10" dxfId="75" priority="84" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="74" priority="85" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:K7">
-    <cfRule type="top10" dxfId="53" priority="7" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="52" priority="8" rank="1"/>
+    <cfRule type="top10" dxfId="73" priority="86" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="72" priority="87" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:K10">
-    <cfRule type="top10" dxfId="51" priority="9" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="50" priority="10" rank="1"/>
+    <cfRule type="top10" dxfId="71" priority="88" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="70" priority="89" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:K9">
-    <cfRule type="top10" dxfId="49" priority="11" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="48" priority="12" rank="1"/>
+    <cfRule type="top10" dxfId="69" priority="90" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="68" priority="91" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:K12">
-    <cfRule type="top10" dxfId="47" priority="13" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="46" priority="14" rank="1"/>
+    <cfRule type="top10" dxfId="67" priority="92" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="66" priority="93" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:K11">
-    <cfRule type="top10" dxfId="45" priority="15" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="44" priority="16" rank="1"/>
+    <cfRule type="top10" dxfId="65" priority="94" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="64" priority="95" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:K13">
-    <cfRule type="top10" dxfId="43" priority="17" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="42" priority="18" rank="1"/>
+    <cfRule type="top10" dxfId="63" priority="96" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="62" priority="97" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:K14">
-    <cfRule type="top10" dxfId="41" priority="19" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="40" priority="20" rank="1"/>
+    <cfRule type="top10" dxfId="61" priority="98" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="60" priority="99" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J53:R53">
+    <cfRule type="top10" dxfId="59" priority="61" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J54:R54">
+    <cfRule type="top10" dxfId="58" priority="19" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J55:R55">
+    <cfRule type="top10" dxfId="57" priority="18" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J56:R56">
+    <cfRule type="top10" dxfId="56" priority="17" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J57:R57">
+    <cfRule type="top10" dxfId="55" priority="16" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J58:R58">
+    <cfRule type="top10" dxfId="54" priority="15" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J59:R59">
+    <cfRule type="top10" dxfId="53" priority="14" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J60:R60">
+    <cfRule type="top10" dxfId="52" priority="13" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J61:R61">
+    <cfRule type="top10" dxfId="51" priority="12" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J52:R52">
+    <cfRule type="top10" dxfId="50" priority="11" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J67:R67">
+    <cfRule type="top10" dxfId="49" priority="10" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J68:R68">
+    <cfRule type="top10" dxfId="48" priority="9" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J69:R69">
+    <cfRule type="top10" dxfId="47" priority="8" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J70:R70">
+    <cfRule type="top10" dxfId="46" priority="7" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J71:R71">
+    <cfRule type="top10" dxfId="45" priority="6" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J72:R72">
+    <cfRule type="top10" dxfId="44" priority="5" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J73:R73">
+    <cfRule type="top10" dxfId="43" priority="4" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J74:R74">
+    <cfRule type="top10" dxfId="42" priority="3" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J75:R75">
+    <cfRule type="top10" dxfId="41" priority="2" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J66:R66">
+    <cfRule type="top10" dxfId="40" priority="1" rank="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -17796,6 +19929,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Foglio8"/>
   <dimension ref="A2:AC60"/>
   <sheetViews>
     <sheetView topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -17819,35 +19953,35 @@
       <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="58" t="s">
+      <c r="D4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="63" t="s">
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="63"/>
-      <c r="N4" s="63"/>
-      <c r="O4" s="63"/>
-      <c r="P4" s="63"/>
-      <c r="Q4" s="58" t="s">
+      <c r="M4" s="80"/>
+      <c r="N4" s="80"/>
+      <c r="O4" s="80"/>
+      <c r="P4" s="80"/>
+      <c r="Q4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="R4" s="58"/>
-      <c r="S4" s="58"/>
-      <c r="T4" s="58"/>
-      <c r="U4" s="58"/>
-      <c r="V4" s="58"/>
-      <c r="W4" s="58"/>
-      <c r="X4" s="58"/>
-      <c r="Y4" s="58"/>
-      <c r="Z4" s="58"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="73"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="73"/>
+      <c r="V4" s="73"/>
+      <c r="W4" s="73"/>
+      <c r="X4" s="73"/>
+      <c r="Y4" s="73"/>
+      <c r="Z4" s="73"/>
     </row>
     <row r="5" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
@@ -17856,37 +19990,37 @@
       <c r="C5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59" t="s">
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="59"/>
-      <c r="M5" s="59"/>
-      <c r="N5" s="59" t="s">
+      <c r="L5" s="74"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="O5" s="59"/>
-      <c r="P5" s="59"/>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="59"/>
-      <c r="S5" s="59"/>
-      <c r="T5" s="59"/>
-      <c r="U5" s="59"/>
-      <c r="V5" s="59"/>
-      <c r="W5" s="59"/>
-      <c r="X5" s="59"/>
-      <c r="Y5" s="59"/>
-      <c r="Z5" s="59"/>
-      <c r="AA5" s="59"/>
-      <c r="AB5" s="59"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="74"/>
+      <c r="T5" s="74"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
+      <c r="W5" s="74"/>
+      <c r="X5" s="74"/>
+      <c r="Y5" s="74"/>
+      <c r="Z5" s="74"/>
+      <c r="AA5" s="74"/>
+      <c r="AB5" s="74"/>
     </row>
     <row r="6" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
@@ -18848,35 +20982,35 @@
       <c r="B17" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="58" t="s">
+      <c r="D17" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="63" t="s">
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="73"/>
+      <c r="H17" s="73"/>
+      <c r="I17" s="73"/>
+      <c r="J17" s="73"/>
+      <c r="K17" s="73"/>
+      <c r="L17" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="M17" s="63"/>
-      <c r="N17" s="63"/>
-      <c r="O17" s="63"/>
-      <c r="P17" s="63"/>
-      <c r="Q17" s="58" t="s">
+      <c r="M17" s="80"/>
+      <c r="N17" s="80"/>
+      <c r="O17" s="80"/>
+      <c r="P17" s="80"/>
+      <c r="Q17" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="R17" s="58"/>
-      <c r="S17" s="58"/>
-      <c r="T17" s="58"/>
-      <c r="U17" s="58"/>
-      <c r="V17" s="58"/>
-      <c r="W17" s="58"/>
-      <c r="X17" s="58"/>
-      <c r="Y17" s="58"/>
-      <c r="Z17" s="58"/>
+      <c r="R17" s="73"/>
+      <c r="S17" s="73"/>
+      <c r="T17" s="73"/>
+      <c r="U17" s="73"/>
+      <c r="V17" s="73"/>
+      <c r="W17" s="73"/>
+      <c r="X17" s="73"/>
+      <c r="Y17" s="73"/>
+      <c r="Z17" s="73"/>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
@@ -18886,35 +21020,35 @@
       <c r="C18" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="59" t="s">
+      <c r="D18" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59" t="s">
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="74"/>
+      <c r="I18" s="74"/>
+      <c r="J18" s="74"/>
+      <c r="K18" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="L18" s="59"/>
-      <c r="M18" s="59"/>
-      <c r="N18" s="59" t="s">
+      <c r="L18" s="74"/>
+      <c r="M18" s="74"/>
+      <c r="N18" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="O18" s="59"/>
-      <c r="P18" s="59"/>
-      <c r="Q18" s="59"/>
-      <c r="R18" s="59"/>
-      <c r="S18" s="59"/>
-      <c r="T18" s="59"/>
-      <c r="U18" s="59"/>
-      <c r="V18" s="59"/>
-      <c r="W18" s="59"/>
-      <c r="X18" s="59"/>
-      <c r="Y18" s="59"/>
-      <c r="Z18" s="59"/>
+      <c r="O18" s="74"/>
+      <c r="P18" s="74"/>
+      <c r="Q18" s="74"/>
+      <c r="R18" s="74"/>
+      <c r="S18" s="74"/>
+      <c r="T18" s="74"/>
+      <c r="U18" s="74"/>
+      <c r="V18" s="74"/>
+      <c r="W18" s="74"/>
+      <c r="X18" s="74"/>
+      <c r="Y18" s="74"/>
+      <c r="Z18" s="74"/>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
@@ -19859,35 +21993,35 @@
       <c r="B32" t="s">
         <v>0</v>
       </c>
-      <c r="D32" s="58" t="s">
+      <c r="D32" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="58"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="58"/>
-      <c r="H32" s="58"/>
-      <c r="I32" s="58"/>
-      <c r="J32" s="58"/>
-      <c r="K32" s="58"/>
-      <c r="L32" s="63" t="s">
+      <c r="E32" s="73"/>
+      <c r="F32" s="73"/>
+      <c r="G32" s="73"/>
+      <c r="H32" s="73"/>
+      <c r="I32" s="73"/>
+      <c r="J32" s="73"/>
+      <c r="K32" s="73"/>
+      <c r="L32" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="M32" s="63"/>
-      <c r="N32" s="63"/>
-      <c r="O32" s="63"/>
-      <c r="P32" s="63"/>
-      <c r="Q32" s="58" t="s">
+      <c r="M32" s="80"/>
+      <c r="N32" s="80"/>
+      <c r="O32" s="80"/>
+      <c r="P32" s="80"/>
+      <c r="Q32" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="R32" s="58"/>
-      <c r="S32" s="58"/>
-      <c r="T32" s="58"/>
-      <c r="U32" s="58"/>
-      <c r="V32" s="58"/>
-      <c r="W32" s="58"/>
-      <c r="X32" s="58"/>
-      <c r="Y32" s="58"/>
-      <c r="Z32" s="58"/>
+      <c r="R32" s="73"/>
+      <c r="S32" s="73"/>
+      <c r="T32" s="73"/>
+      <c r="U32" s="73"/>
+      <c r="V32" s="73"/>
+      <c r="W32" s="73"/>
+      <c r="X32" s="73"/>
+      <c r="Y32" s="73"/>
+      <c r="Z32" s="73"/>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B33" s="5" t="s">
@@ -19896,35 +22030,35 @@
       <c r="C33" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D33" s="59" t="s">
+      <c r="D33" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="E33" s="59"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="59"/>
-      <c r="H33" s="59"/>
-      <c r="I33" s="59"/>
-      <c r="J33" s="59"/>
-      <c r="K33" s="59" t="s">
+      <c r="E33" s="74"/>
+      <c r="F33" s="74"/>
+      <c r="G33" s="74"/>
+      <c r="H33" s="74"/>
+      <c r="I33" s="74"/>
+      <c r="J33" s="74"/>
+      <c r="K33" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="L33" s="59"/>
-      <c r="M33" s="59"/>
-      <c r="N33" s="59" t="s">
+      <c r="L33" s="74"/>
+      <c r="M33" s="74"/>
+      <c r="N33" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="O33" s="59"/>
-      <c r="P33" s="59"/>
-      <c r="Q33" s="59"/>
-      <c r="R33" s="59"/>
-      <c r="S33" s="59"/>
-      <c r="T33" s="59"/>
-      <c r="U33" s="59"/>
-      <c r="V33" s="59"/>
-      <c r="W33" s="59"/>
-      <c r="X33" s="59"/>
-      <c r="Y33" s="59"/>
-      <c r="Z33" s="59"/>
+      <c r="O33" s="74"/>
+      <c r="P33" s="74"/>
+      <c r="Q33" s="74"/>
+      <c r="R33" s="74"/>
+      <c r="S33" s="74"/>
+      <c r="T33" s="74"/>
+      <c r="U33" s="74"/>
+      <c r="V33" s="74"/>
+      <c r="W33" s="74"/>
+      <c r="X33" s="74"/>
+      <c r="Y33" s="74"/>
+      <c r="Z33" s="74"/>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
@@ -21051,35 +23185,35 @@
       <c r="B46" t="s">
         <v>1</v>
       </c>
-      <c r="D46" s="58" t="s">
+      <c r="D46" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="E46" s="58"/>
-      <c r="F46" s="58"/>
-      <c r="G46" s="58"/>
-      <c r="H46" s="58"/>
-      <c r="I46" s="58"/>
-      <c r="J46" s="58"/>
-      <c r="K46" s="58"/>
-      <c r="L46" s="63" t="s">
+      <c r="E46" s="73"/>
+      <c r="F46" s="73"/>
+      <c r="G46" s="73"/>
+      <c r="H46" s="73"/>
+      <c r="I46" s="73"/>
+      <c r="J46" s="73"/>
+      <c r="K46" s="73"/>
+      <c r="L46" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="M46" s="63"/>
-      <c r="N46" s="63"/>
-      <c r="O46" s="63"/>
-      <c r="P46" s="63"/>
-      <c r="Q46" s="58" t="s">
+      <c r="M46" s="80"/>
+      <c r="N46" s="80"/>
+      <c r="O46" s="80"/>
+      <c r="P46" s="80"/>
+      <c r="Q46" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="R46" s="58"/>
-      <c r="S46" s="58"/>
-      <c r="T46" s="58"/>
-      <c r="U46" s="58"/>
-      <c r="V46" s="58"/>
-      <c r="W46" s="58"/>
-      <c r="X46" s="58"/>
-      <c r="Y46" s="58"/>
-      <c r="Z46" s="58"/>
+      <c r="R46" s="73"/>
+      <c r="S46" s="73"/>
+      <c r="T46" s="73"/>
+      <c r="U46" s="73"/>
+      <c r="V46" s="73"/>
+      <c r="W46" s="73"/>
+      <c r="X46" s="73"/>
+      <c r="Y46" s="73"/>
+      <c r="Z46" s="73"/>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B47" s="5" t="s">
@@ -21088,35 +23222,35 @@
       <c r="C47" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D47" s="59" t="s">
+      <c r="D47" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="E47" s="59"/>
-      <c r="F47" s="59"/>
-      <c r="G47" s="59"/>
-      <c r="H47" s="59"/>
-      <c r="I47" s="59"/>
-      <c r="J47" s="59"/>
-      <c r="K47" s="59" t="s">
+      <c r="E47" s="74"/>
+      <c r="F47" s="74"/>
+      <c r="G47" s="74"/>
+      <c r="H47" s="74"/>
+      <c r="I47" s="74"/>
+      <c r="J47" s="74"/>
+      <c r="K47" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="L47" s="59"/>
-      <c r="M47" s="59"/>
-      <c r="N47" s="59" t="s">
+      <c r="L47" s="74"/>
+      <c r="M47" s="74"/>
+      <c r="N47" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="O47" s="59"/>
-      <c r="P47" s="59"/>
-      <c r="Q47" s="59"/>
-      <c r="R47" s="59"/>
-      <c r="S47" s="59"/>
-      <c r="T47" s="59"/>
-      <c r="U47" s="59"/>
-      <c r="V47" s="59"/>
-      <c r="W47" s="59"/>
-      <c r="X47" s="59"/>
-      <c r="Y47" s="59"/>
-      <c r="Z47" s="59"/>
+      <c r="O47" s="74"/>
+      <c r="P47" s="74"/>
+      <c r="Q47" s="74"/>
+      <c r="R47" s="74"/>
+      <c r="S47" s="74"/>
+      <c r="T47" s="74"/>
+      <c r="U47" s="74"/>
+      <c r="V47" s="74"/>
+      <c r="W47" s="74"/>
+      <c r="X47" s="74"/>
+      <c r="Y47" s="74"/>
+      <c r="Z47" s="74"/>
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
@@ -22229,6 +24363,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="D47:J47"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="L32:P32"/>
+    <mergeCell ref="L46:P46"/>
+    <mergeCell ref="D46:K46"/>
+    <mergeCell ref="D32:K32"/>
+    <mergeCell ref="K47:M47"/>
+    <mergeCell ref="N18:Z18"/>
+    <mergeCell ref="N47:Z47"/>
+    <mergeCell ref="Q46:Z46"/>
+    <mergeCell ref="Q32:Z32"/>
+    <mergeCell ref="N33:Z33"/>
     <mergeCell ref="Q4:Z4"/>
     <mergeCell ref="Q17:Z17"/>
     <mergeCell ref="D5:J5"/>
@@ -22241,18 +24387,6 @@
     <mergeCell ref="K5:M5"/>
     <mergeCell ref="K33:M33"/>
     <mergeCell ref="N5:AB5"/>
-    <mergeCell ref="D47:J47"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="L32:P32"/>
-    <mergeCell ref="L46:P46"/>
-    <mergeCell ref="D46:K46"/>
-    <mergeCell ref="D32:K32"/>
-    <mergeCell ref="K47:M47"/>
-    <mergeCell ref="N18:Z18"/>
-    <mergeCell ref="N47:Z47"/>
-    <mergeCell ref="Q46:Z46"/>
-    <mergeCell ref="Q32:Z32"/>
-    <mergeCell ref="N33:Z33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D43:AA43">

--- a/Other/Saved Results.xlsx
+++ b/Other/Saved Results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr codeName="Questa_cartella_di_lavoro"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\albi2\Documents\GitHub\Variational-Autoencoder-for-EEG-analysis\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B4BC01-8809-4136-830B-5EBCF8E4584B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00299706-5DB8-4B4F-9CB3-494EB4D01499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="644" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="129">
   <si>
     <t>Accuract END</t>
   </si>
@@ -433,6 +433,29 @@
   <si>
     <t>83.83±0.87</t>
   </si>
+  <si>
+    <t>Input channelsOutput channels</t>
+  </si>
+  <si>
+    <t>8
+16</t>
+  </si>
+  <si>
+    <t>1
+8</t>
+  </si>
+  <si>
+    <t>16
+16</t>
+  </si>
+  <si>
+    <t>16
+8</t>
+  </si>
+  <si>
+    <t>8
+1</t>
+  </si>
 </sst>
 </file>
 
@@ -689,7 +712,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -889,11 +912,17 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -907,11 +936,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3618,16 +3650,16 @@
       <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="73" t="s">
+      <c r="D4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
       <c r="L4" s="36"/>
       <c r="M4" s="36"/>
       <c r="N4" s="36"/>
@@ -3651,21 +3683,21 @@
       <c r="C5" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="74" t="s">
+      <c r="D5" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="74"/>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="74"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="75"/>
       <c r="Q5" s="35"/>
       <c r="R5" s="35"/>
       <c r="S5" s="35"/>
@@ -4076,16 +4108,16 @@
       <c r="B17" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="73" t="s">
+      <c r="D17" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="73"/>
-      <c r="I17" s="73"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="73"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="74"/>
+      <c r="K17" s="74"/>
       <c r="L17" s="36"/>
       <c r="M17" s="36"/>
       <c r="N17" s="36"/>
@@ -4110,15 +4142,15 @@
       <c r="C18" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="74" t="s">
+      <c r="D18" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="74"/>
-      <c r="I18" s="74"/>
-      <c r="J18" s="74"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="75"/>
       <c r="K18" s="35"/>
       <c r="L18" s="35"/>
       <c r="M18" s="35"/>
@@ -4643,16 +4675,16 @@
       <c r="B32" t="s">
         <v>0</v>
       </c>
-      <c r="D32" s="73" t="s">
+      <c r="D32" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="73"/>
-      <c r="F32" s="73"/>
-      <c r="G32" s="73"/>
-      <c r="H32" s="73"/>
-      <c r="I32" s="73"/>
-      <c r="J32" s="73"/>
-      <c r="K32" s="73"/>
+      <c r="E32" s="74"/>
+      <c r="F32" s="74"/>
+      <c r="G32" s="74"/>
+      <c r="H32" s="74"/>
+      <c r="I32" s="74"/>
+      <c r="J32" s="74"/>
+      <c r="K32" s="74"/>
       <c r="L32" s="36"/>
       <c r="M32" s="36"/>
       <c r="N32" s="36"/>
@@ -4676,21 +4708,21 @@
       <c r="C33" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D33" s="74" t="s">
+      <c r="D33" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="E33" s="74"/>
-      <c r="F33" s="74"/>
-      <c r="G33" s="74"/>
-      <c r="H33" s="74"/>
-      <c r="I33" s="74"/>
-      <c r="J33" s="74"/>
-      <c r="K33" s="74"/>
-      <c r="L33" s="74"/>
-      <c r="M33" s="74"/>
-      <c r="N33" s="74"/>
-      <c r="O33" s="74"/>
-      <c r="P33" s="74"/>
+      <c r="E33" s="75"/>
+      <c r="F33" s="75"/>
+      <c r="G33" s="75"/>
+      <c r="H33" s="75"/>
+      <c r="I33" s="75"/>
+      <c r="J33" s="75"/>
+      <c r="K33" s="75"/>
+      <c r="L33" s="75"/>
+      <c r="M33" s="75"/>
+      <c r="N33" s="75"/>
+      <c r="O33" s="75"/>
+      <c r="P33" s="75"/>
       <c r="Q33" s="36"/>
       <c r="R33" s="36"/>
       <c r="S33" s="36"/>
@@ -5827,16 +5859,16 @@
       <c r="B46" t="s">
         <v>1</v>
       </c>
-      <c r="D46" s="73" t="s">
+      <c r="D46" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="E46" s="73"/>
-      <c r="F46" s="73"/>
-      <c r="G46" s="73"/>
-      <c r="H46" s="73"/>
-      <c r="I46" s="73"/>
-      <c r="J46" s="73"/>
-      <c r="K46" s="73"/>
+      <c r="E46" s="74"/>
+      <c r="F46" s="74"/>
+      <c r="G46" s="74"/>
+      <c r="H46" s="74"/>
+      <c r="I46" s="74"/>
+      <c r="J46" s="74"/>
+      <c r="K46" s="74"/>
       <c r="L46" s="36"/>
       <c r="M46" s="36"/>
       <c r="N46" s="36"/>
@@ -5860,21 +5892,21 @@
       <c r="C47" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D47" s="74" t="s">
+      <c r="D47" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="E47" s="74"/>
-      <c r="F47" s="74"/>
-      <c r="G47" s="74"/>
-      <c r="H47" s="74"/>
-      <c r="I47" s="74"/>
-      <c r="J47" s="74"/>
-      <c r="K47" s="74"/>
-      <c r="L47" s="74"/>
-      <c r="M47" s="74"/>
-      <c r="N47" s="74"/>
-      <c r="O47" s="74"/>
-      <c r="P47" s="74"/>
+      <c r="E47" s="75"/>
+      <c r="F47" s="75"/>
+      <c r="G47" s="75"/>
+      <c r="H47" s="75"/>
+      <c r="I47" s="75"/>
+      <c r="J47" s="75"/>
+      <c r="K47" s="75"/>
+      <c r="L47" s="75"/>
+      <c r="M47" s="75"/>
+      <c r="N47" s="75"/>
+      <c r="O47" s="75"/>
+      <c r="P47" s="75"/>
       <c r="Q47" s="36"/>
       <c r="R47" s="36"/>
       <c r="S47" s="36"/>
@@ -7151,21 +7183,21 @@
       <c r="C5" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="74" t="s">
+      <c r="D5" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="74"/>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="74"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="75"/>
       <c r="Q5" s="35"/>
       <c r="R5" s="35"/>
       <c r="S5" s="35"/>
@@ -8122,15 +8154,15 @@
       <c r="C18" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="74" t="s">
+      <c r="D18" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="74"/>
-      <c r="I18" s="74"/>
-      <c r="J18" s="74"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="75"/>
       <c r="K18" s="35"/>
       <c r="L18" s="35"/>
       <c r="M18" s="35"/>
@@ -9067,21 +9099,21 @@
       <c r="C31" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D31" s="74" t="s">
+      <c r="D31" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="E31" s="74"/>
-      <c r="F31" s="74"/>
-      <c r="G31" s="74"/>
-      <c r="H31" s="74"/>
-      <c r="I31" s="74"/>
-      <c r="J31" s="74"/>
-      <c r="K31" s="74"/>
-      <c r="L31" s="74"/>
-      <c r="M31" s="74"/>
-      <c r="N31" s="74"/>
-      <c r="O31" s="74"/>
-      <c r="P31" s="74"/>
+      <c r="E31" s="75"/>
+      <c r="F31" s="75"/>
+      <c r="G31" s="75"/>
+      <c r="H31" s="75"/>
+      <c r="I31" s="75"/>
+      <c r="J31" s="75"/>
+      <c r="K31" s="75"/>
+      <c r="L31" s="75"/>
+      <c r="M31" s="75"/>
+      <c r="N31" s="75"/>
+      <c r="O31" s="75"/>
+      <c r="P31" s="75"/>
       <c r="Q31" s="35"/>
       <c r="R31" s="35"/>
       <c r="S31" s="35"/>
@@ -9767,15 +9799,15 @@
       <c r="C44" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D44" s="74" t="s">
+      <c r="D44" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="E44" s="74"/>
-      <c r="F44" s="74"/>
-      <c r="G44" s="74"/>
-      <c r="H44" s="74"/>
-      <c r="I44" s="74"/>
-      <c r="J44" s="74"/>
+      <c r="E44" s="75"/>
+      <c r="F44" s="75"/>
+      <c r="G44" s="75"/>
+      <c r="H44" s="75"/>
+      <c r="I44" s="75"/>
+      <c r="J44" s="75"/>
       <c r="K44" s="35"/>
       <c r="L44" s="35"/>
       <c r="M44" s="35"/>
@@ -10464,16 +10496,16 @@
       <c r="B61" t="s">
         <v>0</v>
       </c>
-      <c r="D61" s="73" t="s">
+      <c r="D61" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="E61" s="73"/>
-      <c r="F61" s="73"/>
-      <c r="G61" s="73"/>
-      <c r="H61" s="73"/>
-      <c r="I61" s="73"/>
-      <c r="J61" s="73"/>
-      <c r="K61" s="73"/>
+      <c r="E61" s="74"/>
+      <c r="F61" s="74"/>
+      <c r="G61" s="74"/>
+      <c r="H61" s="74"/>
+      <c r="I61" s="74"/>
+      <c r="J61" s="74"/>
+      <c r="K61" s="74"/>
       <c r="L61" s="36"/>
       <c r="M61" s="36"/>
       <c r="N61" s="36"/>
@@ -10498,21 +10530,21 @@
       <c r="C62" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D62" s="74" t="s">
+      <c r="D62" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="E62" s="74"/>
-      <c r="F62" s="74"/>
-      <c r="G62" s="74"/>
-      <c r="H62" s="74"/>
-      <c r="I62" s="74"/>
-      <c r="J62" s="74"/>
-      <c r="K62" s="74"/>
-      <c r="L62" s="74"/>
-      <c r="M62" s="74"/>
-      <c r="N62" s="74"/>
-      <c r="O62" s="74"/>
-      <c r="P62" s="74"/>
+      <c r="E62" s="75"/>
+      <c r="F62" s="75"/>
+      <c r="G62" s="75"/>
+      <c r="H62" s="75"/>
+      <c r="I62" s="75"/>
+      <c r="J62" s="75"/>
+      <c r="K62" s="75"/>
+      <c r="L62" s="75"/>
+      <c r="M62" s="75"/>
+      <c r="N62" s="75"/>
+      <c r="O62" s="75"/>
+      <c r="P62" s="75"/>
       <c r="Q62" s="36"/>
       <c r="R62" s="36"/>
       <c r="S62" s="36"/>
@@ -11762,16 +11794,16 @@
       <c r="B75" t="s">
         <v>1</v>
       </c>
-      <c r="D75" s="73" t="s">
+      <c r="D75" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="E75" s="73"/>
-      <c r="F75" s="73"/>
-      <c r="G75" s="73"/>
-      <c r="H75" s="73"/>
-      <c r="I75" s="73"/>
-      <c r="J75" s="73"/>
-      <c r="K75" s="73"/>
+      <c r="E75" s="74"/>
+      <c r="F75" s="74"/>
+      <c r="G75" s="74"/>
+      <c r="H75" s="74"/>
+      <c r="I75" s="74"/>
+      <c r="J75" s="74"/>
+      <c r="K75" s="74"/>
       <c r="L75" s="36"/>
       <c r="M75" s="36"/>
       <c r="N75" s="36"/>
@@ -11788,21 +11820,21 @@
       <c r="C76" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D76" s="74" t="s">
+      <c r="D76" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="E76" s="74"/>
-      <c r="F76" s="74"/>
-      <c r="G76" s="74"/>
-      <c r="H76" s="74"/>
-      <c r="I76" s="74"/>
-      <c r="J76" s="74"/>
-      <c r="K76" s="74"/>
-      <c r="L76" s="74"/>
-      <c r="M76" s="74"/>
-      <c r="N76" s="74"/>
-      <c r="O76" s="74"/>
-      <c r="P76" s="74"/>
+      <c r="E76" s="75"/>
+      <c r="F76" s="75"/>
+      <c r="G76" s="75"/>
+      <c r="H76" s="75"/>
+      <c r="I76" s="75"/>
+      <c r="J76" s="75"/>
+      <c r="K76" s="75"/>
+      <c r="L76" s="75"/>
+      <c r="M76" s="75"/>
+      <c r="N76" s="75"/>
+      <c r="O76" s="75"/>
+      <c r="P76" s="75"/>
       <c r="Q76" s="36"/>
       <c r="R76" s="36"/>
       <c r="S76" s="36"/>
@@ -13049,22 +13081,22 @@
       <c r="L92" s="53"/>
     </row>
     <row r="93" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="B93" s="74" t="s">
+      <c r="B93" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="C93" s="74"/>
-      <c r="D93" s="74" t="s">
+      <c r="C93" s="75"/>
+      <c r="D93" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="E93" s="74"/>
-      <c r="H93" s="74" t="s">
+      <c r="E93" s="75"/>
+      <c r="H93" s="75" t="s">
         <v>70</v>
       </c>
-      <c r="I93" s="74"/>
-      <c r="J93" s="74" t="s">
+      <c r="I93" s="75"/>
+      <c r="J93" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="K93" s="74"/>
+      <c r="K93" s="75"/>
       <c r="L93" s="53"/>
     </row>
     <row r="94" spans="1:30" x14ac:dyDescent="0.3">
@@ -13510,18 +13542,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="J93:K93"/>
+    <mergeCell ref="D75:K75"/>
+    <mergeCell ref="D76:P76"/>
     <mergeCell ref="D5:P5"/>
     <mergeCell ref="D18:J18"/>
     <mergeCell ref="D61:K61"/>
     <mergeCell ref="D62:P62"/>
     <mergeCell ref="D31:P31"/>
     <mergeCell ref="D44:J44"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="J93:K93"/>
-    <mergeCell ref="D75:K75"/>
-    <mergeCell ref="D76:P76"/>
   </mergeCells>
   <conditionalFormatting sqref="T43:AA43">
     <cfRule type="top10" dxfId="199" priority="119" bottom="1" rank="1"/>
@@ -13714,16 +13746,16 @@
       <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="73" t="s">
+      <c r="D4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
       <c r="L4" s="36"/>
       <c r="M4" s="36"/>
       <c r="N4" s="36"/>
@@ -13747,21 +13779,21 @@
       <c r="C5" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="74" t="s">
+      <c r="D5" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="74"/>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="74"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="75"/>
       <c r="Q5" s="35"/>
       <c r="R5" s="35"/>
       <c r="S5" s="35"/>
@@ -14100,16 +14132,16 @@
       <c r="B17" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="73" t="s">
+      <c r="D17" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="73"/>
-      <c r="I17" s="73"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="73"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="74"/>
+      <c r="K17" s="74"/>
       <c r="L17" s="36"/>
       <c r="M17" s="36"/>
       <c r="N17" s="36"/>
@@ -14134,15 +14166,15 @@
       <c r="C18" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="74" t="s">
+      <c r="D18" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="74"/>
-      <c r="I18" s="74"/>
-      <c r="J18" s="74"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="75"/>
       <c r="K18" s="35"/>
       <c r="L18" s="35"/>
       <c r="M18" s="35"/>
@@ -14613,16 +14645,16 @@
       <c r="B32" t="s">
         <v>0</v>
       </c>
-      <c r="D32" s="73" t="s">
+      <c r="D32" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="73"/>
-      <c r="F32" s="73"/>
-      <c r="G32" s="73"/>
-      <c r="H32" s="73"/>
-      <c r="I32" s="73"/>
-      <c r="J32" s="73"/>
-      <c r="K32" s="73"/>
+      <c r="E32" s="74"/>
+      <c r="F32" s="74"/>
+      <c r="G32" s="74"/>
+      <c r="H32" s="74"/>
+      <c r="I32" s="74"/>
+      <c r="J32" s="74"/>
+      <c r="K32" s="74"/>
       <c r="L32" s="36"/>
       <c r="M32" s="36"/>
       <c r="N32" s="36"/>
@@ -14646,21 +14678,21 @@
       <c r="C33" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="D33" s="74" t="s">
+      <c r="D33" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="E33" s="74"/>
-      <c r="F33" s="74"/>
-      <c r="G33" s="74"/>
-      <c r="H33" s="74"/>
-      <c r="I33" s="74"/>
-      <c r="J33" s="74"/>
-      <c r="K33" s="74"/>
-      <c r="L33" s="74"/>
-      <c r="M33" s="74"/>
-      <c r="N33" s="74"/>
-      <c r="O33" s="74"/>
-      <c r="P33" s="74"/>
+      <c r="E33" s="75"/>
+      <c r="F33" s="75"/>
+      <c r="G33" s="75"/>
+      <c r="H33" s="75"/>
+      <c r="I33" s="75"/>
+      <c r="J33" s="75"/>
+      <c r="K33" s="75"/>
+      <c r="L33" s="75"/>
+      <c r="M33" s="75"/>
+      <c r="N33" s="75"/>
+      <c r="O33" s="75"/>
+      <c r="P33" s="75"/>
       <c r="Q33" s="36"/>
       <c r="R33" s="36"/>
       <c r="S33" s="36"/>
@@ -15797,16 +15829,16 @@
       <c r="B46" t="s">
         <v>1</v>
       </c>
-      <c r="D46" s="73" t="s">
+      <c r="D46" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="E46" s="73"/>
-      <c r="F46" s="73"/>
-      <c r="G46" s="73"/>
-      <c r="H46" s="73"/>
-      <c r="I46" s="73"/>
-      <c r="J46" s="73"/>
-      <c r="K46" s="73"/>
+      <c r="E46" s="74"/>
+      <c r="F46" s="74"/>
+      <c r="G46" s="74"/>
+      <c r="H46" s="74"/>
+      <c r="I46" s="74"/>
+      <c r="J46" s="74"/>
+      <c r="K46" s="74"/>
       <c r="L46" s="36"/>
       <c r="M46" s="36"/>
       <c r="N46" s="36"/>
@@ -15830,21 +15862,21 @@
       <c r="C47" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="D47" s="74" t="s">
+      <c r="D47" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="E47" s="74"/>
-      <c r="F47" s="74"/>
-      <c r="G47" s="74"/>
-      <c r="H47" s="74"/>
-      <c r="I47" s="74"/>
-      <c r="J47" s="74"/>
-      <c r="K47" s="74"/>
-      <c r="L47" s="74"/>
-      <c r="M47" s="74"/>
-      <c r="N47" s="74"/>
-      <c r="O47" s="74"/>
-      <c r="P47" s="74"/>
+      <c r="E47" s="75"/>
+      <c r="F47" s="75"/>
+      <c r="G47" s="75"/>
+      <c r="H47" s="75"/>
+      <c r="I47" s="75"/>
+      <c r="J47" s="75"/>
+      <c r="K47" s="75"/>
+      <c r="L47" s="75"/>
+      <c r="M47" s="75"/>
+      <c r="N47" s="75"/>
+      <c r="O47" s="75"/>
+      <c r="P47" s="75"/>
       <c r="Q47" s="36"/>
       <c r="R47" s="36"/>
       <c r="S47" s="36"/>
@@ -17565,10 +17597,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7966B4A-BD72-4AB7-AA6D-CA8E4CEBADE5}">
   <sheetPr codeName="Foglio5"/>
-  <dimension ref="A2:W75"/>
+  <dimension ref="A2:AI75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R60" sqref="R60"/>
+    <sheetView tabSelected="1" topLeftCell="Q26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z5" sqref="Z5:AG39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17585,42 +17617,45 @@
     <col min="19" max="19" width="6" style="55" bestFit="1" customWidth="1"/>
     <col min="20" max="22" width="8.88671875" style="55"/>
     <col min="23" max="23" width="24.21875" style="55" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="8.88671875" style="55"/>
+    <col min="24" max="32" width="8.88671875" style="55"/>
+    <col min="33" max="33" width="24.21875" style="55" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="16.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="35" max="16384" width="8.88671875" style="55"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="F2" s="76" t="s">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="F2" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="78"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B3" s="74" t="s">
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="80"/>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="B3" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74" t="s">
+      <c r="C3" s="75"/>
+      <c r="D3" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74">
+      <c r="E3" s="75"/>
+      <c r="F3" s="75">
         <v>32</v>
       </c>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74">
+      <c r="G3" s="75"/>
+      <c r="H3" s="75">
         <v>64</v>
       </c>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74">
+      <c r="I3" s="75"/>
+      <c r="J3" s="75">
         <v>128</v>
       </c>
-      <c r="K3" s="74"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="K3" s="75"/>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B4" s="55" t="s">
         <v>2</v>
       </c>
@@ -17651,19 +17686,31 @@
       <c r="K4" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="P4" s="74"/>
-      <c r="Q4" s="74"/>
-      <c r="R4" s="74"/>
-      <c r="S4" s="74"/>
-      <c r="T4" s="74"/>
-      <c r="U4" s="74"/>
-      <c r="V4" s="74"/>
-      <c r="W4" s="74"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="P4" s="75"/>
+      <c r="Q4" s="75"/>
+      <c r="R4" s="75"/>
+      <c r="S4" s="75"/>
+      <c r="T4" s="75"/>
+      <c r="U4" s="75"/>
+      <c r="V4" s="75"/>
+      <c r="W4" s="75"/>
+      <c r="Z4" s="73"/>
+      <c r="AA4" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB4" s="75"/>
+      <c r="AC4" s="75"/>
+      <c r="AD4" s="75"/>
+      <c r="AE4" s="75"/>
+      <c r="AF4" s="75"/>
+      <c r="AG4" s="75"/>
+      <c r="AH4" s="35"/>
+      <c r="AI4" s="35"/>
+    </row>
+    <row r="5" spans="1:35" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="55">
         <v>1</v>
       </c>
@@ -17697,7 +17744,7 @@
       <c r="K5" s="17">
         <v>85.763900000000007</v>
       </c>
-      <c r="N5" s="79" t="s">
+      <c r="N5" s="76" t="s">
         <v>68</v>
       </c>
       <c r="P5" s="55" t="s">
@@ -17724,8 +17771,30 @@
       <c r="W5" s="55" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="Z5" s="76" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA5" s="73"/>
+      <c r="AB5" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC5" s="82" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD5" s="73" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE5" s="73" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF5" s="73" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG5" s="73" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="55">
         <v>2</v>
       </c>
@@ -17759,8 +17828,8 @@
       <c r="K6" s="20">
         <v>77.083299999999994</v>
       </c>
-      <c r="N6" s="79"/>
-      <c r="O6" s="75" t="s">
+      <c r="N6" s="76"/>
+      <c r="O6" s="77" t="s">
         <v>43</v>
       </c>
       <c r="P6" s="55" t="s">
@@ -17787,8 +17856,30 @@
       <c r="W6" s="55" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="Z6" s="76"/>
+      <c r="AA6" s="77" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB6" s="73" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC6" s="83" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD6" s="73" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE6" s="73" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF6" s="73" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG6" s="73" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" s="55">
         <v>3</v>
       </c>
@@ -17822,8 +17913,8 @@
       <c r="K7" s="20">
         <v>89.9305555555556</v>
       </c>
-      <c r="N7" s="79"/>
-      <c r="O7" s="75"/>
+      <c r="N7" s="76"/>
+      <c r="O7" s="77"/>
       <c r="P7" s="55" t="s">
         <v>33</v>
       </c>
@@ -17848,8 +17939,28 @@
       <c r="W7" s="55" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="Z7" s="76"/>
+      <c r="AA7" s="77"/>
+      <c r="AB7" s="73" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC7" s="82" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD7" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE7" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF7" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG7" s="73" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="55">
         <v>4</v>
       </c>
@@ -17883,8 +17994,8 @@
       <c r="K8" s="20">
         <v>78.125</v>
       </c>
-      <c r="N8" s="79"/>
-      <c r="O8" s="75"/>
+      <c r="N8" s="76"/>
+      <c r="O8" s="77"/>
       <c r="P8" s="55" t="s">
         <v>32</v>
       </c>
@@ -17909,8 +18020,28 @@
       <c r="W8" s="55" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="Z8" s="76"/>
+      <c r="AA8" s="77"/>
+      <c r="AB8" s="73" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC8" s="83" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD8" s="73" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE8" s="73" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF8" s="73">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="73" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9" s="55">
         <v>5</v>
       </c>
@@ -17944,8 +18075,8 @@
       <c r="K9" s="20">
         <v>84.027799999999999</v>
       </c>
-      <c r="N9" s="79"/>
-      <c r="O9" s="75"/>
+      <c r="N9" s="76"/>
+      <c r="O9" s="77"/>
       <c r="P9" s="55" t="s">
         <v>33</v>
       </c>
@@ -17970,8 +18101,28 @@
       <c r="W9" s="55" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="Z9" s="76"/>
+      <c r="AA9" s="77"/>
+      <c r="AB9" s="73" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC9" s="82" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD9" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE9" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF9" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG9" s="73" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10" s="55">
         <v>6</v>
       </c>
@@ -18005,8 +18156,8 @@
       <c r="K10" s="20">
         <v>86.1111111111111</v>
       </c>
-      <c r="N10" s="79"/>
-      <c r="O10" s="75"/>
+      <c r="N10" s="76"/>
+      <c r="O10" s="77"/>
       <c r="P10" s="58" t="s">
         <v>65</v>
       </c>
@@ -18031,8 +18182,28 @@
       <c r="W10" s="55" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="Z10" s="76"/>
+      <c r="AA10" s="77"/>
+      <c r="AB10" s="73" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC10" s="82" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD10" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE10" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF10" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG10" s="73" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11" s="55">
         <v>7</v>
       </c>
@@ -18066,8 +18237,8 @@
       <c r="K11" s="20">
         <v>88.888900000000007</v>
       </c>
-      <c r="N11" s="79"/>
-      <c r="O11" s="75"/>
+      <c r="N11" s="76"/>
+      <c r="O11" s="77"/>
       <c r="P11" s="55" t="s">
         <v>38</v>
       </c>
@@ -18092,8 +18263,28 @@
       <c r="W11" s="55" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="Z11" s="76"/>
+      <c r="AA11" s="77"/>
+      <c r="AB11" s="73" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC11" s="82" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD11" s="73" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE11" s="73" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF11" s="73">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="73" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12" s="55">
         <v>8</v>
       </c>
@@ -18127,8 +18318,8 @@
       <c r="K12" s="20">
         <v>89.236099999999993</v>
       </c>
-      <c r="N12" s="79"/>
-      <c r="O12" s="75"/>
+      <c r="N12" s="76"/>
+      <c r="O12" s="77"/>
       <c r="P12" s="55" t="s">
         <v>41</v>
       </c>
@@ -18153,8 +18344,28 @@
       <c r="W12" s="55" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="Z12" s="76"/>
+      <c r="AA12" s="77"/>
+      <c r="AB12" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC12" s="82" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD12" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE12" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF12" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG12" s="73" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="55">
         <v>9</v>
       </c>
@@ -18188,8 +18399,8 @@
       <c r="K13" s="20">
         <v>94.444400000000002</v>
       </c>
-      <c r="N13" s="79"/>
-      <c r="O13" s="75" t="s">
+      <c r="N13" s="76"/>
+      <c r="O13" s="77" t="s">
         <v>49</v>
       </c>
       <c r="P13" s="55" t="s">
@@ -18216,8 +18427,30 @@
       <c r="W13" s="55" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="Z13" s="76"/>
+      <c r="AA13" s="77" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB13" s="73" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC13" s="82" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD13" s="73" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE13" s="73" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF13" s="73" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG13" s="73" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="55" t="s">
         <v>2</v>
       </c>
@@ -18251,8 +18484,8 @@
       <c r="K14" s="24">
         <v>85.956785185185183</v>
       </c>
-      <c r="N14" s="79"/>
-      <c r="O14" s="75"/>
+      <c r="N14" s="76"/>
+      <c r="O14" s="77"/>
       <c r="P14" s="55" t="s">
         <v>32</v>
       </c>
@@ -18277,10 +18510,30 @@
       <c r="W14" s="55" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="N15" s="79"/>
-      <c r="O15" s="75"/>
+      <c r="Z14" s="76"/>
+      <c r="AA14" s="77"/>
+      <c r="AB14" s="73" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC14" s="82" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD14" s="73" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE14" s="73" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF14" s="73">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="73" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="N15" s="76"/>
+      <c r="O15" s="77"/>
       <c r="P15" s="55" t="s">
         <v>33</v>
       </c>
@@ -18305,10 +18558,30 @@
       <c r="W15" s="55" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="N16" s="79"/>
-      <c r="O16" s="75"/>
+      <c r="Z15" s="76"/>
+      <c r="AA15" s="77"/>
+      <c r="AB15" s="73" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC15" s="82" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD15" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE15" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF15" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG15" s="73" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="N16" s="76"/>
+      <c r="O16" s="77"/>
       <c r="P16" s="58" t="s">
         <v>65</v>
       </c>
@@ -18333,10 +18606,30 @@
       <c r="W16" s="55" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="N17" s="79"/>
-      <c r="O17" s="75"/>
+      <c r="Z16" s="76"/>
+      <c r="AA16" s="77"/>
+      <c r="AB16" s="73" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC16" s="82" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD16" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE16" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF16" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG16" s="73" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="N17" s="76"/>
+      <c r="O17" s="77"/>
       <c r="P17" s="55" t="s">
         <v>38</v>
       </c>
@@ -18361,10 +18654,30 @@
       <c r="W17" s="55" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="N18" s="79"/>
-      <c r="O18" s="75"/>
+      <c r="Z17" s="76"/>
+      <c r="AA17" s="77"/>
+      <c r="AB17" s="73" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC17" s="82" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD17" s="73" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE17" s="73" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF17" s="73">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="73" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="N18" s="76"/>
+      <c r="O18" s="77"/>
       <c r="P18" s="55" t="s">
         <v>41</v>
       </c>
@@ -18389,58 +18702,112 @@
       <c r="W18" s="55" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="Z18" s="76"/>
+      <c r="AA18" s="77"/>
+      <c r="AB18" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC18" s="82" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD18" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE18" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF18" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG18" s="73" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B19" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="N19" s="79"/>
+      <c r="N19" s="76"/>
       <c r="P19" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="Q19" s="74" t="s">
+      <c r="Q19" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="R19" s="74"/>
-      <c r="S19" s="74"/>
-      <c r="T19" s="74" t="s">
+      <c r="R19" s="75"/>
+      <c r="S19" s="75"/>
+      <c r="T19" s="75" t="s">
         <v>52</v>
       </c>
-      <c r="U19" s="74"/>
-      <c r="V19" s="74"/>
+      <c r="U19" s="75"/>
+      <c r="V19" s="75"/>
       <c r="W19" s="55" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="Z19" s="76"/>
+      <c r="AA19" s="73"/>
+      <c r="AB19" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC19" s="75" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD19" s="75"/>
+      <c r="AE19" s="75" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF19" s="75"/>
+      <c r="AG19" s="73" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B20" s="55" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="N20" s="79"/>
-      <c r="O20" s="75" t="s">
+      <c r="N20" s="76"/>
+      <c r="O20" s="77" t="s">
         <v>54</v>
       </c>
       <c r="P20" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="Q20" s="74" t="s">
+      <c r="Q20" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="R20" s="74"/>
-      <c r="S20" s="74"/>
-      <c r="T20" s="74" t="s">
+      <c r="R20" s="75"/>
+      <c r="S20" s="75"/>
+      <c r="T20" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="U20" s="74"/>
-      <c r="V20" s="74"/>
+      <c r="U20" s="75"/>
+      <c r="V20" s="75"/>
       <c r="W20" s="55" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="Z20" s="76"/>
+      <c r="AA20" s="77" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB20" s="73" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC20" s="75" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD20" s="75"/>
+      <c r="AE20" s="75" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF20" s="75"/>
+      <c r="AG20" s="73" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A21" s="55">
         <v>1</v>
       </c>
@@ -18450,26 +18817,42 @@
       <c r="C21" s="55" t="s">
         <v>104</v>
       </c>
-      <c r="N21" s="79"/>
-      <c r="O21" s="75"/>
+      <c r="N21" s="76"/>
+      <c r="O21" s="77"/>
       <c r="P21" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="Q21" s="74">
+      <c r="Q21" s="75">
         <v>256</v>
       </c>
-      <c r="R21" s="74"/>
-      <c r="S21" s="74"/>
-      <c r="T21" s="74">
+      <c r="R21" s="75"/>
+      <c r="S21" s="75"/>
+      <c r="T21" s="75">
         <v>128</v>
       </c>
-      <c r="U21" s="74"/>
-      <c r="V21" s="74"/>
+      <c r="U21" s="75"/>
+      <c r="V21" s="75"/>
       <c r="W21" s="55" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="Z21" s="76"/>
+      <c r="AA21" s="77"/>
+      <c r="AB21" s="73" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC21" s="75">
+        <v>256</v>
+      </c>
+      <c r="AD21" s="75"/>
+      <c r="AE21" s="75">
+        <v>128</v>
+      </c>
+      <c r="AF21" s="75"/>
+      <c r="AG21" s="73" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A22" s="55">
         <v>2</v>
       </c>
@@ -18479,8 +18862,16 @@
       <c r="C22" s="55" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="Z22" s="73"/>
+      <c r="AA22" s="73"/>
+      <c r="AB22" s="73"/>
+      <c r="AC22" s="73"/>
+      <c r="AD22" s="73"/>
+      <c r="AE22" s="73"/>
+      <c r="AF22" s="73"/>
+      <c r="AG22" s="73"/>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A23" s="55">
         <v>3</v>
       </c>
@@ -18490,28 +18881,46 @@
       <c r="C23" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="N23" s="79" t="s">
+      <c r="N23" s="76" t="s">
         <v>69</v>
       </c>
       <c r="O23" s="58"/>
       <c r="P23" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="Q23" s="74" t="s">
+      <c r="Q23" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="R23" s="74"/>
-      <c r="S23" s="74"/>
-      <c r="T23" s="74" t="s">
+      <c r="R23" s="75"/>
+      <c r="S23" s="75"/>
+      <c r="T23" s="75" t="s">
         <v>52</v>
       </c>
-      <c r="U23" s="74"/>
-      <c r="V23" s="74"/>
+      <c r="U23" s="75"/>
+      <c r="V23" s="75"/>
       <c r="W23" s="58" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="Z23" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA23" s="73"/>
+      <c r="AB23" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC23" s="75" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD23" s="75"/>
+      <c r="AE23" s="75" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF23" s="75"/>
+      <c r="AG23" s="73" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A24" s="55">
         <v>4</v>
       </c>
@@ -18521,28 +18930,46 @@
       <c r="C24" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="N24" s="79"/>
-      <c r="O24" s="75" t="s">
+      <c r="N24" s="76"/>
+      <c r="O24" s="77" t="s">
         <v>54</v>
       </c>
       <c r="P24" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="Q24" s="74" t="s">
+      <c r="Q24" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="R24" s="74"/>
-      <c r="S24" s="74"/>
-      <c r="T24" s="74" t="s">
+      <c r="R24" s="75"/>
+      <c r="S24" s="75"/>
+      <c r="T24" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="U24" s="74"/>
-      <c r="V24" s="74"/>
+      <c r="U24" s="75"/>
+      <c r="V24" s="75"/>
       <c r="W24" s="58" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="Z24" s="76"/>
+      <c r="AA24" s="77" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB24" s="73" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC24" s="75" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD24" s="75"/>
+      <c r="AE24" s="75" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF24" s="75"/>
+      <c r="AG24" s="73" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A25" s="55">
         <v>5</v>
       </c>
@@ -18552,26 +18979,42 @@
       <c r="C25" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="N25" s="79"/>
-      <c r="O25" s="75"/>
+      <c r="N25" s="76"/>
+      <c r="O25" s="77"/>
       <c r="P25" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="Q25" s="74">
+      <c r="Q25" s="75">
         <v>64</v>
       </c>
-      <c r="R25" s="74"/>
-      <c r="S25" s="74"/>
-      <c r="T25" s="74">
+      <c r="R25" s="75"/>
+      <c r="S25" s="75"/>
+      <c r="T25" s="75">
         <v>256</v>
       </c>
-      <c r="U25" s="74"/>
-      <c r="V25" s="74"/>
+      <c r="U25" s="75"/>
+      <c r="V25" s="75"/>
       <c r="W25" s="58" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="Z25" s="76"/>
+      <c r="AA25" s="77"/>
+      <c r="AB25" s="73" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC25" s="75">
+        <v>64</v>
+      </c>
+      <c r="AD25" s="75"/>
+      <c r="AE25" s="75">
+        <v>256</v>
+      </c>
+      <c r="AF25" s="75"/>
+      <c r="AG25" s="73" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A26" s="55">
         <v>6</v>
       </c>
@@ -18581,7 +19024,7 @@
       <c r="C26" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="N26" s="79"/>
+      <c r="N26" s="76"/>
       <c r="O26" s="58"/>
       <c r="P26" s="58" t="s">
         <v>44</v>
@@ -18607,8 +19050,28 @@
       <c r="W26" s="58" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="Z26" s="76"/>
+      <c r="AA26" s="73"/>
+      <c r="AB26" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC26" s="82" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD26" s="73" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE26" s="73" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF26" s="73" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG26" s="73" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A27" s="55">
         <v>7</v>
       </c>
@@ -18618,8 +19081,8 @@
       <c r="C27" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="N27" s="79"/>
-      <c r="O27" s="75" t="s">
+      <c r="N27" s="76"/>
+      <c r="O27" s="77" t="s">
         <v>43</v>
       </c>
       <c r="P27" s="58" t="s">
@@ -18646,8 +19109,30 @@
       <c r="W27" s="58" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="Z27" s="76"/>
+      <c r="AA27" s="77" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB27" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC27" s="82" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD27" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE27" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF27" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG27" s="73" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A28" s="55">
         <v>8</v>
       </c>
@@ -18657,8 +19142,8 @@
       <c r="C28" s="55" t="s">
         <v>118</v>
       </c>
-      <c r="N28" s="79"/>
-      <c r="O28" s="75"/>
+      <c r="N28" s="76"/>
+      <c r="O28" s="77"/>
       <c r="P28" s="58" t="s">
         <v>62</v>
       </c>
@@ -18683,8 +19168,28 @@
       <c r="W28" s="58" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="Z28" s="76"/>
+      <c r="AA28" s="77"/>
+      <c r="AB28" s="73" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC28" s="82" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD28" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE28" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF28" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG28" s="73" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A29" s="55">
         <v>9</v>
       </c>
@@ -18694,8 +19199,8 @@
       <c r="C29" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="N29" s="79"/>
-      <c r="O29" s="75"/>
+      <c r="N29" s="76"/>
+      <c r="O29" s="77"/>
       <c r="P29" s="58" t="s">
         <v>65</v>
       </c>
@@ -18720,8 +19225,28 @@
       <c r="W29" s="58" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="Z29" s="76"/>
+      <c r="AA29" s="77"/>
+      <c r="AB29" s="73" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC29" s="82" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD29" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE29" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF29" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG29" s="73" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A30" s="55" t="s">
         <v>2</v>
       </c>
@@ -18731,8 +19256,8 @@
       <c r="C30" s="55" t="s">
         <v>122</v>
       </c>
-      <c r="N30" s="79"/>
-      <c r="O30" s="75"/>
+      <c r="N30" s="76"/>
+      <c r="O30" s="77"/>
       <c r="P30" s="58" t="s">
         <v>33</v>
       </c>
@@ -18757,10 +19282,30 @@
       <c r="W30" s="58" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="N31" s="79"/>
-      <c r="O31" s="75"/>
+      <c r="Z30" s="76"/>
+      <c r="AA30" s="77"/>
+      <c r="AB30" s="73" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC30" s="82" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD30" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE30" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF30" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG30" s="73" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="N31" s="76"/>
+      <c r="O31" s="77"/>
       <c r="P31" s="58" t="s">
         <v>63</v>
       </c>
@@ -18785,10 +19330,30 @@
       <c r="W31" s="58" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="N32" s="79"/>
-      <c r="O32" s="75"/>
+      <c r="Z31" s="76"/>
+      <c r="AA31" s="77"/>
+      <c r="AB31" s="73" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC31" s="82" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD31" s="73" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE31" s="73" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF31" s="73">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="73" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="N32" s="76"/>
+      <c r="O32" s="77"/>
       <c r="P32" s="58" t="s">
         <v>63</v>
       </c>
@@ -18813,10 +19378,30 @@
       <c r="W32" s="58" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="33" spans="14:23" x14ac:dyDescent="0.3">
-      <c r="N33" s="79"/>
-      <c r="O33" s="75" t="s">
+      <c r="Z32" s="76"/>
+      <c r="AA32" s="77"/>
+      <c r="AB32" s="73" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC32" s="82" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD32" s="73" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE32" s="73" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF32" s="73" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG32" s="73" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="14:33" x14ac:dyDescent="0.3">
+      <c r="N33" s="76"/>
+      <c r="O33" s="77" t="s">
         <v>49</v>
       </c>
       <c r="P33" s="58" t="s">
@@ -18843,10 +19428,32 @@
       <c r="W33" s="58" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="34" spans="14:23" x14ac:dyDescent="0.3">
-      <c r="N34" s="79"/>
-      <c r="O34" s="75"/>
+      <c r="Z33" s="76"/>
+      <c r="AA33" s="77" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB33" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC33" s="82" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD33" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE33" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF33" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG33" s="73" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="14:33" x14ac:dyDescent="0.3">
+      <c r="N34" s="76"/>
+      <c r="O34" s="77"/>
       <c r="P34" s="58" t="s">
         <v>62</v>
       </c>
@@ -18871,10 +19478,30 @@
       <c r="W34" s="58" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="35" spans="14:23" x14ac:dyDescent="0.3">
-      <c r="N35" s="79"/>
-      <c r="O35" s="75"/>
+      <c r="Z34" s="76"/>
+      <c r="AA34" s="77"/>
+      <c r="AB34" s="73" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC34" s="82" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD34" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE34" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF34" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG34" s="73" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="14:33" x14ac:dyDescent="0.3">
+      <c r="N35" s="76"/>
+      <c r="O35" s="77"/>
       <c r="P35" s="58" t="s">
         <v>65</v>
       </c>
@@ -18899,10 +19526,30 @@
       <c r="W35" s="58" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="36" spans="14:23" x14ac:dyDescent="0.3">
-      <c r="N36" s="79"/>
-      <c r="O36" s="75"/>
+      <c r="Z35" s="76"/>
+      <c r="AA35" s="77"/>
+      <c r="AB35" s="73" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC35" s="82" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD35" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE35" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF35" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG35" s="73" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="14:33" x14ac:dyDescent="0.3">
+      <c r="N36" s="76"/>
+      <c r="O36" s="77"/>
       <c r="P36" s="58" t="s">
         <v>33</v>
       </c>
@@ -18927,10 +19574,30 @@
       <c r="W36" s="58" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="14:23" x14ac:dyDescent="0.3">
-      <c r="N37" s="79"/>
-      <c r="O37" s="75"/>
+      <c r="Z36" s="76"/>
+      <c r="AA36" s="77"/>
+      <c r="AB36" s="73" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC36" s="82" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD36" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE36" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF36" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG36" s="73" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="14:33" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="N37" s="76"/>
+      <c r="O37" s="77"/>
       <c r="P37" s="58" t="s">
         <v>63</v>
       </c>
@@ -18955,10 +19622,30 @@
       <c r="W37" s="58" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="38" spans="14:23" x14ac:dyDescent="0.3">
-      <c r="N38" s="79"/>
-      <c r="O38" s="75"/>
+      <c r="Z37" s="76"/>
+      <c r="AA37" s="77"/>
+      <c r="AB37" s="73" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC37" s="82" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD37" s="73" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE37" s="73" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF37" s="73">
+        <v>0</v>
+      </c>
+      <c r="AG37" s="73" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="14:33" x14ac:dyDescent="0.3">
+      <c r="N38" s="76"/>
+      <c r="O38" s="77"/>
       <c r="P38" s="58" t="s">
         <v>33</v>
       </c>
@@ -18983,10 +19670,30 @@
       <c r="W38" s="58" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="39" spans="14:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="N39" s="79"/>
-      <c r="O39" s="75"/>
+      <c r="Z38" s="76"/>
+      <c r="AA38" s="77"/>
+      <c r="AB38" s="73" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC38" s="82" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD38" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE38" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF38" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG38" s="73" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="14:33" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N39" s="76"/>
+      <c r="O39" s="77"/>
       <c r="P39" s="58" t="s">
         <v>63</v>
       </c>
@@ -19011,12 +19718,32 @@
       <c r="W39" s="58" t="s">
         <v>47</v>
       </c>
+      <c r="Z39" s="76"/>
+      <c r="AA39" s="77"/>
+      <c r="AB39" s="73" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC39" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD39" s="73" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE39" s="73" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF39" s="73" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG39" s="73" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="50" spans="9:22" x14ac:dyDescent="0.3">
-      <c r="J50" s="74" t="s">
+      <c r="J50" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="K50" s="74"/>
+      <c r="K50" s="75"/>
     </row>
     <row r="51" spans="9:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="J51" s="55" t="s">
@@ -19389,7 +20116,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="61" spans="9:22" x14ac:dyDescent="0.3">
+    <row r="61" spans="9:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I61" s="65" t="s">
         <v>2</v>
       </c>
@@ -19436,10 +20163,10 @@
       </c>
     </row>
     <row r="64" spans="9:22" x14ac:dyDescent="0.3">
-      <c r="J64" s="74" t="s">
+      <c r="J64" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="K64" s="74"/>
+      <c r="K64" s="75"/>
     </row>
     <row r="65" spans="9:18" ht="57.6" x14ac:dyDescent="0.3">
       <c r="J65" s="60" t="s">
@@ -19791,24 +20518,28 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="N23:N39"/>
-    <mergeCell ref="Q23:S23"/>
-    <mergeCell ref="O27:O32"/>
-    <mergeCell ref="O33:O39"/>
-    <mergeCell ref="T23:V23"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="T24:V24"/>
-    <mergeCell ref="Q25:S25"/>
-    <mergeCell ref="T25:V25"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
+  <mergeCells count="50">
+    <mergeCell ref="AC21:AD21"/>
+    <mergeCell ref="AC20:AD20"/>
+    <mergeCell ref="AC19:AD19"/>
+    <mergeCell ref="AA4:AG4"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="AE24:AF24"/>
+    <mergeCell ref="AE25:AF25"/>
+    <mergeCell ref="AC25:AD25"/>
+    <mergeCell ref="AC24:AD24"/>
+    <mergeCell ref="AC23:AD23"/>
+    <mergeCell ref="Z23:Z39"/>
+    <mergeCell ref="AA24:AA25"/>
+    <mergeCell ref="AA27:AA32"/>
+    <mergeCell ref="AA33:AA39"/>
+    <mergeCell ref="Z5:Z21"/>
+    <mergeCell ref="AA6:AA12"/>
+    <mergeCell ref="AA13:AA18"/>
+    <mergeCell ref="AA20:AA21"/>
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="AE20:AF20"/>
+    <mergeCell ref="AE21:AF21"/>
     <mergeCell ref="Q20:S20"/>
     <mergeCell ref="O6:O12"/>
     <mergeCell ref="O13:O18"/>
@@ -19821,6 +20552,23 @@
     <mergeCell ref="Q19:S19"/>
     <mergeCell ref="Q21:S21"/>
     <mergeCell ref="T20:V20"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="T23:V23"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="T24:V24"/>
+    <mergeCell ref="Q25:S25"/>
+    <mergeCell ref="T25:V25"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="N23:N39"/>
+    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="O27:O32"/>
+    <mergeCell ref="O33:O39"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:K6">
     <cfRule type="top10" dxfId="79" priority="80" bottom="1" rank="1"/>
@@ -19953,35 +20701,35 @@
       <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="73" t="s">
+      <c r="D4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="80" t="s">
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="80"/>
-      <c r="N4" s="80"/>
-      <c r="O4" s="80"/>
-      <c r="P4" s="80"/>
-      <c r="Q4" s="73" t="s">
+      <c r="M4" s="81"/>
+      <c r="N4" s="81"/>
+      <c r="O4" s="81"/>
+      <c r="P4" s="81"/>
+      <c r="Q4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="73"/>
-      <c r="W4" s="73"/>
-      <c r="X4" s="73"/>
-      <c r="Y4" s="73"/>
-      <c r="Z4" s="73"/>
+      <c r="R4" s="74"/>
+      <c r="S4" s="74"/>
+      <c r="T4" s="74"/>
+      <c r="U4" s="74"/>
+      <c r="V4" s="74"/>
+      <c r="W4" s="74"/>
+      <c r="X4" s="74"/>
+      <c r="Y4" s="74"/>
+      <c r="Z4" s="74"/>
     </row>
     <row r="5" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
@@ -19990,37 +20738,37 @@
       <c r="C5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="74" t="s">
+      <c r="D5" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="74" t="s">
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="74"/>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74" t="s">
+      <c r="L5" s="75"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="O5" s="74"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="74"/>
-      <c r="T5" s="74"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
-      <c r="W5" s="74"/>
-      <c r="X5" s="74"/>
-      <c r="Y5" s="74"/>
-      <c r="Z5" s="74"/>
-      <c r="AA5" s="74"/>
-      <c r="AB5" s="74"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="75"/>
+      <c r="T5" s="75"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
+      <c r="W5" s="75"/>
+      <c r="X5" s="75"/>
+      <c r="Y5" s="75"/>
+      <c r="Z5" s="75"/>
+      <c r="AA5" s="75"/>
+      <c r="AB5" s="75"/>
     </row>
     <row r="6" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
@@ -20982,35 +21730,35 @@
       <c r="B17" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="73" t="s">
+      <c r="D17" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="73"/>
-      <c r="I17" s="73"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="73"/>
-      <c r="L17" s="80" t="s">
+      <c r="E17" s="74"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="74"/>
+      <c r="K17" s="74"/>
+      <c r="L17" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="M17" s="80"/>
-      <c r="N17" s="80"/>
-      <c r="O17" s="80"/>
-      <c r="P17" s="80"/>
-      <c r="Q17" s="73" t="s">
+      <c r="M17" s="81"/>
+      <c r="N17" s="81"/>
+      <c r="O17" s="81"/>
+      <c r="P17" s="81"/>
+      <c r="Q17" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="R17" s="73"/>
-      <c r="S17" s="73"/>
-      <c r="T17" s="73"/>
-      <c r="U17" s="73"/>
-      <c r="V17" s="73"/>
-      <c r="W17" s="73"/>
-      <c r="X17" s="73"/>
-      <c r="Y17" s="73"/>
-      <c r="Z17" s="73"/>
+      <c r="R17" s="74"/>
+      <c r="S17" s="74"/>
+      <c r="T17" s="74"/>
+      <c r="U17" s="74"/>
+      <c r="V17" s="74"/>
+      <c r="W17" s="74"/>
+      <c r="X17" s="74"/>
+      <c r="Y17" s="74"/>
+      <c r="Z17" s="74"/>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
@@ -21020,35 +21768,35 @@
       <c r="C18" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="74" t="s">
+      <c r="D18" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="74"/>
-      <c r="I18" s="74"/>
-      <c r="J18" s="74"/>
-      <c r="K18" s="74" t="s">
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="75"/>
+      <c r="K18" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="L18" s="74"/>
-      <c r="M18" s="74"/>
-      <c r="N18" s="74" t="s">
+      <c r="L18" s="75"/>
+      <c r="M18" s="75"/>
+      <c r="N18" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="O18" s="74"/>
-      <c r="P18" s="74"/>
-      <c r="Q18" s="74"/>
-      <c r="R18" s="74"/>
-      <c r="S18" s="74"/>
-      <c r="T18" s="74"/>
-      <c r="U18" s="74"/>
-      <c r="V18" s="74"/>
-      <c r="W18" s="74"/>
-      <c r="X18" s="74"/>
-      <c r="Y18" s="74"/>
-      <c r="Z18" s="74"/>
+      <c r="O18" s="75"/>
+      <c r="P18" s="75"/>
+      <c r="Q18" s="75"/>
+      <c r="R18" s="75"/>
+      <c r="S18" s="75"/>
+      <c r="T18" s="75"/>
+      <c r="U18" s="75"/>
+      <c r="V18" s="75"/>
+      <c r="W18" s="75"/>
+      <c r="X18" s="75"/>
+      <c r="Y18" s="75"/>
+      <c r="Z18" s="75"/>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
@@ -21993,35 +22741,35 @@
       <c r="B32" t="s">
         <v>0</v>
       </c>
-      <c r="D32" s="73" t="s">
+      <c r="D32" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="73"/>
-      <c r="F32" s="73"/>
-      <c r="G32" s="73"/>
-      <c r="H32" s="73"/>
-      <c r="I32" s="73"/>
-      <c r="J32" s="73"/>
-      <c r="K32" s="73"/>
-      <c r="L32" s="80" t="s">
+      <c r="E32" s="74"/>
+      <c r="F32" s="74"/>
+      <c r="G32" s="74"/>
+      <c r="H32" s="74"/>
+      <c r="I32" s="74"/>
+      <c r="J32" s="74"/>
+      <c r="K32" s="74"/>
+      <c r="L32" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="M32" s="80"/>
-      <c r="N32" s="80"/>
-      <c r="O32" s="80"/>
-      <c r="P32" s="80"/>
-      <c r="Q32" s="73" t="s">
+      <c r="M32" s="81"/>
+      <c r="N32" s="81"/>
+      <c r="O32" s="81"/>
+      <c r="P32" s="81"/>
+      <c r="Q32" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="R32" s="73"/>
-      <c r="S32" s="73"/>
-      <c r="T32" s="73"/>
-      <c r="U32" s="73"/>
-      <c r="V32" s="73"/>
-      <c r="W32" s="73"/>
-      <c r="X32" s="73"/>
-      <c r="Y32" s="73"/>
-      <c r="Z32" s="73"/>
+      <c r="R32" s="74"/>
+      <c r="S32" s="74"/>
+      <c r="T32" s="74"/>
+      <c r="U32" s="74"/>
+      <c r="V32" s="74"/>
+      <c r="W32" s="74"/>
+      <c r="X32" s="74"/>
+      <c r="Y32" s="74"/>
+      <c r="Z32" s="74"/>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B33" s="5" t="s">
@@ -22030,35 +22778,35 @@
       <c r="C33" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D33" s="74" t="s">
+      <c r="D33" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="E33" s="74"/>
-      <c r="F33" s="74"/>
-      <c r="G33" s="74"/>
-      <c r="H33" s="74"/>
-      <c r="I33" s="74"/>
-      <c r="J33" s="74"/>
-      <c r="K33" s="74" t="s">
+      <c r="E33" s="75"/>
+      <c r="F33" s="75"/>
+      <c r="G33" s="75"/>
+      <c r="H33" s="75"/>
+      <c r="I33" s="75"/>
+      <c r="J33" s="75"/>
+      <c r="K33" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="L33" s="74"/>
-      <c r="M33" s="74"/>
-      <c r="N33" s="74" t="s">
+      <c r="L33" s="75"/>
+      <c r="M33" s="75"/>
+      <c r="N33" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="O33" s="74"/>
-      <c r="P33" s="74"/>
-      <c r="Q33" s="74"/>
-      <c r="R33" s="74"/>
-      <c r="S33" s="74"/>
-      <c r="T33" s="74"/>
-      <c r="U33" s="74"/>
-      <c r="V33" s="74"/>
-      <c r="W33" s="74"/>
-      <c r="X33" s="74"/>
-      <c r="Y33" s="74"/>
-      <c r="Z33" s="74"/>
+      <c r="O33" s="75"/>
+      <c r="P33" s="75"/>
+      <c r="Q33" s="75"/>
+      <c r="R33" s="75"/>
+      <c r="S33" s="75"/>
+      <c r="T33" s="75"/>
+      <c r="U33" s="75"/>
+      <c r="V33" s="75"/>
+      <c r="W33" s="75"/>
+      <c r="X33" s="75"/>
+      <c r="Y33" s="75"/>
+      <c r="Z33" s="75"/>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
@@ -23185,35 +23933,35 @@
       <c r="B46" t="s">
         <v>1</v>
       </c>
-      <c r="D46" s="73" t="s">
+      <c r="D46" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="E46" s="73"/>
-      <c r="F46" s="73"/>
-      <c r="G46" s="73"/>
-      <c r="H46" s="73"/>
-      <c r="I46" s="73"/>
-      <c r="J46" s="73"/>
-      <c r="K46" s="73"/>
-      <c r="L46" s="80" t="s">
+      <c r="E46" s="74"/>
+      <c r="F46" s="74"/>
+      <c r="G46" s="74"/>
+      <c r="H46" s="74"/>
+      <c r="I46" s="74"/>
+      <c r="J46" s="74"/>
+      <c r="K46" s="74"/>
+      <c r="L46" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="M46" s="80"/>
-      <c r="N46" s="80"/>
-      <c r="O46" s="80"/>
-      <c r="P46" s="80"/>
-      <c r="Q46" s="73" t="s">
+      <c r="M46" s="81"/>
+      <c r="N46" s="81"/>
+      <c r="O46" s="81"/>
+      <c r="P46" s="81"/>
+      <c r="Q46" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="R46" s="73"/>
-      <c r="S46" s="73"/>
-      <c r="T46" s="73"/>
-      <c r="U46" s="73"/>
-      <c r="V46" s="73"/>
-      <c r="W46" s="73"/>
-      <c r="X46" s="73"/>
-      <c r="Y46" s="73"/>
-      <c r="Z46" s="73"/>
+      <c r="R46" s="74"/>
+      <c r="S46" s="74"/>
+      <c r="T46" s="74"/>
+      <c r="U46" s="74"/>
+      <c r="V46" s="74"/>
+      <c r="W46" s="74"/>
+      <c r="X46" s="74"/>
+      <c r="Y46" s="74"/>
+      <c r="Z46" s="74"/>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B47" s="5" t="s">
@@ -23222,35 +23970,35 @@
       <c r="C47" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D47" s="74" t="s">
+      <c r="D47" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="E47" s="74"/>
-      <c r="F47" s="74"/>
-      <c r="G47" s="74"/>
-      <c r="H47" s="74"/>
-      <c r="I47" s="74"/>
-      <c r="J47" s="74"/>
-      <c r="K47" s="74" t="s">
+      <c r="E47" s="75"/>
+      <c r="F47" s="75"/>
+      <c r="G47" s="75"/>
+      <c r="H47" s="75"/>
+      <c r="I47" s="75"/>
+      <c r="J47" s="75"/>
+      <c r="K47" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="L47" s="74"/>
-      <c r="M47" s="74"/>
-      <c r="N47" s="74" t="s">
+      <c r="L47" s="75"/>
+      <c r="M47" s="75"/>
+      <c r="N47" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="O47" s="74"/>
-      <c r="P47" s="74"/>
-      <c r="Q47" s="74"/>
-      <c r="R47" s="74"/>
-      <c r="S47" s="74"/>
-      <c r="T47" s="74"/>
-      <c r="U47" s="74"/>
-      <c r="V47" s="74"/>
-      <c r="W47" s="74"/>
-      <c r="X47" s="74"/>
-      <c r="Y47" s="74"/>
-      <c r="Z47" s="74"/>
+      <c r="O47" s="75"/>
+      <c r="P47" s="75"/>
+      <c r="Q47" s="75"/>
+      <c r="R47" s="75"/>
+      <c r="S47" s="75"/>
+      <c r="T47" s="75"/>
+      <c r="U47" s="75"/>
+      <c r="V47" s="75"/>
+      <c r="W47" s="75"/>
+      <c r="X47" s="75"/>
+      <c r="Y47" s="75"/>
+      <c r="Z47" s="75"/>
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
@@ -24363,6 +25111,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="Q4:Z4"/>
+    <mergeCell ref="Q17:Z17"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="D18:J18"/>
+    <mergeCell ref="D33:J33"/>
+    <mergeCell ref="D4:K4"/>
+    <mergeCell ref="L4:P4"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="L17:P17"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="N5:AB5"/>
     <mergeCell ref="D47:J47"/>
     <mergeCell ref="K18:M18"/>
     <mergeCell ref="L32:P32"/>
@@ -24375,18 +25135,6 @@
     <mergeCell ref="Q46:Z46"/>
     <mergeCell ref="Q32:Z32"/>
     <mergeCell ref="N33:Z33"/>
-    <mergeCell ref="Q4:Z4"/>
-    <mergeCell ref="Q17:Z17"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="D18:J18"/>
-    <mergeCell ref="D33:J33"/>
-    <mergeCell ref="D4:K4"/>
-    <mergeCell ref="L4:P4"/>
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="L17:P17"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="N5:AB5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D43:AA43">
